--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T13:54:52+01:00</t>
+    <t>2023-11-02T14:22:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:22:57+01:00</t>
+    <t>2023-11-02T14:52:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="315">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:52:41+01:00</t>
+    <t>2023-11-02T22:24:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -904,6 +904,115 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>representant</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/representant</t>
+  </si>
+  <si>
+    <t>Representant</t>
+  </si>
+  <si>
+    <t>Person som representerer en annen etter avtale.</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Element</t>
+  </si>
+  <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Extension.extension:name.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:name.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:name.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:name.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType</t>
+  </si>
+  <si>
+    <t>idType</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1197,6 +1306,166 @@
         <v>33</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1204,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1213,9 +1482,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1245,7 +1515,6 @@
     <col min="32" max="32" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -6018,6 +6287,1563 @@
         <v>56</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="316">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T22:24:37+01:00</t>
+    <t>2023-11-02T22:29:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -906,16 +906,19 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
-    <t>representant</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/representant</t>
+    <t>hn-extension-representant</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-representant</t>
+  </si>
+  <si>
+    <t>HnExtensionRepresentant</t>
   </si>
   <si>
     <t>Representant</t>
   </si>
   <si>
-    <t>Person som representerer en annen etter avtale.</t>
+    <t>Person som representerer en annen etter avtale, vedtakk mm.</t>
   </si>
   <si>
     <t>complex-type</t>
@@ -1351,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
@@ -1395,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -1423,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -1431,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1442,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1460,10 +1463,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1485,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.0859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.84375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6292,10 +6295,10 @@
         <v>279</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6321,10 +6324,10 @@
         <v>38</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6375,7 +6378,7 @@
         <v>37</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>35</v>
@@ -6395,10 +6398,10 @@
         <v>279</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6498,10 +6501,10 @@
         <v>279</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6527,10 +6530,10 @@
         <v>88</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -6601,13 +6604,13 @@
         <v>279</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>37</v>
@@ -6632,10 +6635,10 @@
         <v>88</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -6706,10 +6709,10 @@
         <v>279</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6809,10 +6812,10 @@
         <v>279</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6838,10 +6841,10 @@
         <v>88</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6912,10 +6915,10 @@
         <v>279</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6941,13 +6944,13 @@
         <v>58</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -6955,7 +6958,7 @@
       </c>
       <c r="R52" s="2"/>
       <c r="S52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>37</v>
@@ -6997,7 +7000,7 @@
         <v>37</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7017,10 +7020,10 @@
         <v>279</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7046,10 +7049,10 @@
         <v>115</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7100,7 +7103,7 @@
         <v>37</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>35</v>
@@ -7120,13 +7123,13 @@
         <v>279</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s" s="2">
         <v>37</v>
@@ -7151,10 +7154,10 @@
         <v>88</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -7225,10 +7228,10 @@
         <v>279</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7328,10 +7331,10 @@
         <v>279</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7433,10 +7436,10 @@
         <v>279</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7462,13 +7465,13 @@
         <v>58</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -7476,7 +7479,7 @@
       </c>
       <c r="R57" s="2"/>
       <c r="S57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>37</v>
@@ -7518,7 +7521,7 @@
         <v>37</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -7538,10 +7541,10 @@
         <v>279</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7564,13 +7567,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7621,7 +7624,7 @@
         <v>37</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>35</v>
@@ -7641,10 +7644,10 @@
         <v>279</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7670,13 +7673,13 @@
         <v>58</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -7726,7 +7729,7 @@
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
@@ -7746,10 +7749,10 @@
         <v>279</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7772,13 +7775,13 @@
         <v>37</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -7829,7 +7832,7 @@
         <v>37</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>35</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T00:58:12+01:00</t>
+    <t>2023-11-03T01:33:43+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,57 +258,174 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:idType</t>
-  </si>
-  <si>
-    <t>idType</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x]</t>
+    <t>Extension.extension:ident</t>
+  </si>
+  <si>
+    <t>ident</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].use</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x].system</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].system</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -329,10 +446,10 @@
     <t>Coding.system</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].version</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].version</t>
+    <t>Extension.extension:ident.value[x].type.coding.version</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -347,14 +464,10 @@
     <t>Coding.version</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].code</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
+    <t>Extension.extension:ident.value[x].type.coding.code</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -372,10 +485,10 @@
     <t>Coding.code</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].display</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].display</t>
+    <t>Extension.extension:ident.value[x].type.coding.display</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -390,10 +503,10 @@
     <t>Coding.display</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].userSelected</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].userSelected</t>
+    <t>Extension.extension:ident.value[x].type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -413,6 +526,125 @@
   </si>
   <si>
     <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.text</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].value</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].period</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].assigner</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>base64Binary
@@ -727,7 +959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -737,9 +969,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.2890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -754,19 +986,19 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="30.3984375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.3984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1621,7 +1853,7 @@
         <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>59</v>
@@ -2352,25 +2584,25 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>59</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>38</v>
@@ -2380,7 +2612,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -2395,13 +2627,13 @@
         <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>38</v>
@@ -2419,7 +2651,7 @@
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2439,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2465,18 +2697,20 @@
         <v>59</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="P17" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2500,13 +2734,13 @@
         <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>38</v>
@@ -2524,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -2544,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2567,23 +2801,19 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>38</v>
       </c>
@@ -2631,7 +2861,7 @@
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2640,10 +2870,10 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2651,21 +2881,21 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>38</v>
@@ -2674,23 +2904,21 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2726,31 +2954,31 @@
         <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -2758,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2772,7 +3000,7 @@
         <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
@@ -2784,19 +3012,19 @@
         <v>59</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="P20" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>38</v>
@@ -2845,13 +3073,13 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>42</v>
@@ -2865,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -2876,7 +3104,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -2891,24 +3119,22 @@
         <v>38</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>38</v>
@@ -2950,10 +3176,10 @@
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>45</v>
@@ -2970,21 +3196,21 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>38</v>
@@ -2996,15 +3222,17 @@
         <v>38</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>38</v>
@@ -3041,30 +3269,1300 @@
         <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T01:33:43+01:00</t>
+    <t>2023-11-03T08:05:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T08:05:33+01:00</t>
+    <t>2023-11-04T02:36:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,14 +241,17 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Norwegian human name</t>
+  </si>
+  <si>
+    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -280,6 +283,12 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>Extension.extension:ident.value[x].id</t>
   </si>
   <si>
@@ -407,6 +416,9 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://helsenorge.no/fhir/ValueSet/cs-8116-Dnr-Fnr-vs</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -438,9 +450,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8116</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -985,14 +994,14 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.3984375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.3984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="50.46484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1768,7 +1777,9 @@
       <c r="N8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
         <v>38</v>
@@ -1817,7 +1828,7 @@
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
@@ -1829,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1837,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>38</v>
@@ -1853,7 +1864,7 @@
         <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>59</v>
@@ -1942,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>61</v>
@@ -2045,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>63</v>
@@ -2148,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>65</v>
@@ -2191,7 +2202,7 @@
       </c>
       <c r="R12" s="2"/>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>38</v>
@@ -2253,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
@@ -2264,7 +2275,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>45</v>
@@ -2279,13 +2290,13 @@
         <v>38</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2336,7 +2347,7 @@
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2348,7 +2359,7 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -2356,10 +2367,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2459,14 +2470,14 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
@@ -2488,13 +2499,13 @@
         <v>51</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -2564,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2590,19 +2601,19 @@
         <v>59</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>38</v>
@@ -2627,13 +2638,13 @@
         <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>38</v>
@@ -2651,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2663,7 +2674,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2671,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2697,19 +2708,19 @@
         <v>59</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>38</v>
@@ -2734,13 +2745,13 @@
         <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>38</v>
@@ -2758,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -2770,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2778,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2881,14 +2892,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -2910,13 +2921,13 @@
         <v>51</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -2986,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2997,10 +3008,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
@@ -3012,19 +3023,19 @@
         <v>59</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>38</v>
@@ -3049,13 +3060,11 @@
         <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>38</v>
@@ -3073,7 +3082,7 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3085,7 +3094,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -3093,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3196,14 +3205,14 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
@@ -3225,13 +3234,13 @@
         <v>51</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -3301,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3330,16 +3339,16 @@
         <v>66</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>38</v>
@@ -3349,7 +3358,7 @@
         <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>38</v>
@@ -3388,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3400,7 +3409,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -3408,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3437,13 +3446,13 @@
         <v>46</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -3493,7 +3502,7 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3505,7 +3514,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -3513,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3539,19 +3548,19 @@
         <v>59</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>38</v>
@@ -3600,7 +3609,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3612,7 +3621,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -3620,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3649,16 +3658,16 @@
         <v>46</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>38</v>
@@ -3707,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3719,7 +3728,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -3727,10 +3736,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3753,19 +3762,19 @@
         <v>59</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>38</v>
@@ -3814,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -3826,7 +3835,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -3834,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3863,16 +3872,16 @@
         <v>46</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>38</v>
@@ -3921,7 +3930,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -3933,7 +3942,7 @@
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -3941,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -3970,16 +3979,16 @@
         <v>66</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>38</v>
@@ -3992,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V29" t="s" s="2">
         <v>38</v>
@@ -4028,7 +4037,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4040,7 +4049,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -4048,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4077,13 +4086,13 @@
         <v>46</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4097,7 +4106,7 @@
         <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V30" t="s" s="2">
         <v>38</v>
@@ -4133,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4145,7 +4154,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -4153,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4179,16 +4188,16 @@
         <v>59</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
@@ -4238,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4250,7 +4259,7 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32">
@@ -4258,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4284,16 +4293,16 @@
         <v>59</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -4343,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4355,7 +4364,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
@@ -4468,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4494,13 +4503,13 @@
         <v>38</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4551,7 +4560,7 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4563,7 +4572,7 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:36:33+01:00</t>
+    <t>2023-11-04T02:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="213">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:45:56+01:00</t>
+    <t>2023-11-04T23:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -658,6 +658,21 @@
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>hn-extension-varselorganisasjon</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-varselorganisasjon</t>
+  </si>
+  <si>
+    <t>HnExtensionVarselorganisasjon</t>
+  </si>
+  <si>
+    <t>Varselorganisasjon</t>
+  </si>
+  <si>
+    <t>Varselorganisasjon som kjem frem i varsel til innbygger.</t>
   </si>
 </sst>
 </file>
@@ -791,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -961,6 +976,166 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -968,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -977,7 +1152,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.09765625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4575,6 +4750,523 @@
         <v>78</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="216">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,10 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T23:57:32+01:00</t>
+    <t>2023-11-05T00:35:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Helsenorge</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -664,6 +667,12 @@
   </si>
   <si>
     <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-varselorganisasjon</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: http://helsenorge.no/fhir/extension/varselorganisasjon</t>
   </si>
   <si>
     <t>HnExtensionVarselorganisasjon</t>
@@ -806,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -890,90 +899,92 @@
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -997,82 +1008,86 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
@@ -1084,56 +1099,62 @@
       <c r="A36" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B42" t="s" s="2">
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>37</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1193,102 +1214,102 @@
         <v>3</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s" s="2">
         <v>11</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG1" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1296,102 +1317,102 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1399,102 +1420,102 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1502,104 +1523,104 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1607,102 +1628,102 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1710,102 +1731,102 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1813,104 +1834,104 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1918,104 +1939,104 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -2023,104 +2044,104 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -2128,102 +2149,102 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -2231,102 +2252,102 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2334,104 +2355,104 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -2439,102 +2460,102 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -2542,102 +2563,102 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -2645,104 +2666,104 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2750,106 +2771,106 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2857,106 +2878,106 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -2964,102 +2985,102 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -3067,104 +3088,104 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3172,104 +3193,104 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -3277,102 +3298,102 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -3380,104 +3401,104 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -3485,106 +3506,106 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -3592,104 +3613,104 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -3697,106 +3718,106 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -3804,106 +3825,106 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -3911,106 +3932,106 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -4018,106 +4039,106 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -4125,106 +4146,106 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -4232,104 +4253,104 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -4337,104 +4358,104 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
@@ -4442,104 +4463,104 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
@@ -4547,104 +4568,104 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
         <v>5</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -4652,619 +4673,619 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T00:35:42+01:00</t>
+    <t>2023-11-05T15:52:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T15:52:07+01:00</t>
+    <t>2023-11-05T18:57:51+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T18:57:51+01:00</t>
+    <t>2023-11-05T19:05:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/identifiers/uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -2128,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
@@ -2136,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
@@ -2152,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
@@ -2160,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
@@ -2168,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -2206,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
@@ -2274,7 +2271,7 @@
         <v>36</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63">
@@ -2290,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65">
@@ -2298,15 +2295,15 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="67">
@@ -2322,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
@@ -2330,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70">
@@ -2338,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71">
@@ -2376,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76">
@@ -2444,7 +2441,7 @@
         <v>36</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2478,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.578125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.45703125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
@@ -4539,46 +4536,46 @@
         <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="U20" t="s" s="2">
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -4598,10 +4595,10 @@
         <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4627,13 +4624,13 @@
         <v>46</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -4647,43 +4644,43 @@
         <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -4695,7 +4692,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -4703,10 +4700,10 @@
         <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4729,16 +4726,16 @@
         <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4788,7 +4785,7 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -4800,7 +4797,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -4808,10 +4805,10 @@
         <v>67</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4834,16 +4831,16 @@
         <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4893,7 +4890,7 @@
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -4905,7 +4902,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4913,10 +4910,10 @@
         <v>67</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4939,16 +4936,16 @@
         <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4998,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -5018,10 +5015,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5047,13 +5044,13 @@
         <v>58</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -5103,7 +5100,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -5123,14 +5120,14 @@
         <v>67</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5149,16 +5146,16 @@
         <v>80</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5208,7 +5205,7 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -5220,7 +5217,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
@@ -5228,14 +5225,14 @@
         <v>67</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5254,16 +5251,16 @@
         <v>80</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -5313,7 +5310,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -5325,7 +5322,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -5333,14 +5330,14 @@
         <v>67</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
@@ -5362,16 +5359,16 @@
         <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="P28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>38</v>
@@ -5420,7 +5417,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -5440,10 +5437,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5469,13 +5466,13 @@
         <v>97</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5486,7 +5483,7 @@
         <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>38</v>
@@ -5504,11 +5501,11 @@
         <v>143</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AB29" t="s" s="2">
         <v>38</v>
       </c>
@@ -5525,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5537,7 +5534,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -5545,10 +5542,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5574,13 +5571,13 @@
         <v>97</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -5591,7 +5588,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5609,11 +5606,11 @@
         <v>143</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AA30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AB30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5630,7 +5627,7 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5642,7 +5639,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -5650,10 +5647,10 @@
         <v>67</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5679,16 +5676,16 @@
         <v>63</v>
       </c>
       <c r="M31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="O31" t="s" s="2">
+      <c r="P31" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5717,7 +5714,7 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>38</v>
@@ -5735,7 +5732,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5755,10 +5752,10 @@
         <v>67</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5784,20 +5781,20 @@
         <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>38</v>
@@ -5821,11 +5818,11 @@
         <v>143</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AB32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5842,7 +5839,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -5854,7 +5851,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
@@ -5862,10 +5859,10 @@
         <v>67</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5888,26 +5885,26 @@
         <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O33" t="s" s="2">
+      <c r="P33" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="P33" t="s" s="2">
+      <c r="Q33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Q33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="S33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5951,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -5971,14 +5968,14 @@
         <v>67</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -6000,13 +5997,13 @@
         <v>63</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -6036,7 +6033,7 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>38</v>
@@ -6054,7 +6051,7 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -6074,10 +6071,10 @@
         <v>67</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6177,10 +6174,10 @@
         <v>67</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6282,13 +6279,13 @@
         <v>67</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>38</v>
@@ -6310,7 +6307,7 @@
         <v>38</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>11</v>
@@ -6387,10 +6384,10 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6490,10 +6487,10 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6593,10 +6590,10 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6698,10 +6695,10 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6761,7 +6758,7 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>38</v>
@@ -6799,10 +6796,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6825,19 +6822,19 @@
         <v>80</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="O42" t="s" s="2">
+      <c r="P42" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>38</v>
@@ -6886,7 +6883,7 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -6906,10 +6903,10 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6935,16 +6932,16 @@
         <v>46</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="O43" t="s" s="2">
+      <c r="P43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>38</v>
@@ -6993,7 +6990,7 @@
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -7013,14 +7010,14 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -7042,13 +7039,13 @@
         <v>63</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -7074,14 +7071,14 @@
         <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AA44" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AB44" t="s" s="2">
         <v>38</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -7107,7 +7104,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>66</v>
@@ -7118,10 +7115,10 @@
         <v>67</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7144,17 +7141,17 @@
         <v>80</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>38</v>
@@ -7203,7 +7200,7 @@
         <v>38</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -7223,10 +7220,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7249,16 +7246,16 @@
         <v>80</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="O46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7308,7 +7305,7 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -7320,7 +7317,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
@@ -7328,10 +7325,10 @@
         <v>67</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7431,10 +7428,10 @@
         <v>67</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7536,10 +7533,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7565,13 +7562,13 @@
         <v>46</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -7621,16 +7618,16 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>66</v>
@@ -7641,10 +7638,10 @@
         <v>67</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7670,13 +7667,13 @@
         <v>58</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7687,7 +7684,7 @@
         <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>38</v>
@@ -7705,28 +7702,28 @@
         <v>152</v>
       </c>
       <c r="Z50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AA50" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AA50" t="s" s="2">
+      <c r="AB50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG50" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7746,10 +7743,10 @@
         <v>67</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7775,13 +7772,13 @@
         <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7831,7 +7828,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7851,10 +7848,10 @@
         <v>67</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7954,10 +7951,10 @@
         <v>67</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8059,10 +8056,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8166,10 +8163,10 @@
         <v>67</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8273,10 +8270,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8302,7 +8299,7 @@
         <v>58</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>158</v>
@@ -8324,43 +8321,43 @@
         <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -8372,7 +8369,7 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57">
@@ -8380,10 +8377,10 @@
         <v>67</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8409,13 +8406,13 @@
         <v>46</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8429,43 +8426,43 @@
         <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG57" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8485,10 +8482,10 @@
         <v>67</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8511,16 +8508,16 @@
         <v>80</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8570,7 +8567,7 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -8582,7 +8579,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59">
@@ -8590,10 +8587,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8616,16 +8613,16 @@
         <v>80</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -8675,7 +8672,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8687,7 +8684,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60">
@@ -8695,10 +8692,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8724,13 +8721,13 @@
         <v>46</v>
       </c>
       <c r="M60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8780,7 +8777,7 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -8800,14 +8797,14 @@
         <v>67</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
@@ -8826,16 +8823,16 @@
         <v>80</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8885,7 +8882,7 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -8897,7 +8894,7 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62">
@@ -8905,14 +8902,14 @@
         <v>67</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s" s="2">
@@ -8931,13 +8928,13 @@
         <v>80</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8988,7 +8985,7 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -9008,10 +9005,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9034,13 +9031,13 @@
         <v>80</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -9067,14 +9064,14 @@
         <v>38</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA63" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AA63" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AB63" t="s" s="2">
         <v>38</v>
       </c>
@@ -9091,7 +9088,7 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -9111,14 +9108,14 @@
         <v>67</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9137,13 +9134,13 @@
         <v>80</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -9194,7 +9191,7 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9214,14 +9211,14 @@
         <v>67</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9240,16 +9237,16 @@
         <v>80</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9299,7 +9296,7 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -9311,7 +9308,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66">
@@ -9319,14 +9316,14 @@
         <v>67</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
@@ -9348,13 +9345,13 @@
         <v>63</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
@@ -9384,7 +9381,7 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
@@ -9402,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -9422,14 +9419,14 @@
         <v>67</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
@@ -9448,16 +9445,16 @@
         <v>80</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9507,7 +9504,7 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -9519,7 +9516,7 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68">
@@ -9527,10 +9524,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9556,13 +9553,13 @@
         <v>63</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9588,14 +9585,14 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA68" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AA68" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
       </c>
@@ -9612,7 +9609,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9632,10 +9629,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9658,16 +9655,16 @@
         <v>80</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="O69" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9717,7 +9714,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9729,7 +9726,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70">
@@ -9737,10 +9734,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9766,13 +9763,13 @@
         <v>63</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9798,14 +9795,14 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z70" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA70" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AB70" t="s" s="2">
         <v>38</v>
       </c>
@@ -9822,7 +9819,7 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9842,10 +9839,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9868,16 +9865,16 @@
         <v>80</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
@@ -9927,7 +9924,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9939,7 +9936,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -9947,10 +9944,10 @@
         <v>67</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9973,16 +9970,16 @@
         <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
@@ -10032,7 +10029,7 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -10044,7 +10041,7 @@
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73">
@@ -10052,14 +10049,14 @@
         <v>67</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10078,16 +10075,16 @@
         <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -10137,7 +10134,7 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10149,7 +10146,7 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74">
@@ -10157,10 +10154,10 @@
         <v>67</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10183,16 +10180,16 @@
         <v>80</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10242,7 +10239,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10254,7 +10251,7 @@
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75">
@@ -10262,14 +10259,14 @@
         <v>67</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10291,16 +10288,16 @@
         <v>63</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="O75" t="s" s="2">
+      <c r="P75" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>38</v>
@@ -10325,14 +10322,14 @@
         <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z75" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AA75" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AA75" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AB75" t="s" s="2">
         <v>38</v>
       </c>
@@ -10349,7 +10346,7 @@
         <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -10369,10 +10366,10 @@
         <v>67</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10395,16 +10392,16 @@
         <v>38</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -10454,7 +10451,7 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
@@ -10474,10 +10471,10 @@
         <v>67</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10503,13 +10500,13 @@
         <v>46</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="O77" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10559,7 +10556,7 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10579,10 +10576,10 @@
         <v>67</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10605,16 +10602,16 @@
         <v>38</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10664,7 +10661,7 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
@@ -10676,12 +10673,12 @@
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>29</v>
@@ -10713,10 +10710,10 @@
         <v>41</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10784,7 +10781,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>44</v>
@@ -10887,7 +10884,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>50</v>
@@ -10990,16 +10987,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82" t="s" s="2">
         <v>38</v>
@@ -11095,13 +11092,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11198,13 +11195,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11301,13 +11298,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11347,7 +11344,7 @@
       </c>
       <c r="R85" s="2"/>
       <c r="S85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>38</v>
@@ -11406,13 +11403,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11435,16 +11432,16 @@
         <v>38</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11511,16 +11508,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s" s="2">
         <v>38</v>
@@ -11616,13 +11613,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11719,13 +11716,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11822,13 +11819,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11868,7 +11865,7 @@
       </c>
       <c r="R90" s="2"/>
       <c r="S90" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>38</v>
@@ -11927,13 +11924,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12030,13 +12027,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12133,13 +12130,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12238,13 +12235,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12345,13 +12342,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12452,13 +12449,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12555,13 +12552,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12660,13 +12657,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12689,19 +12686,19 @@
         <v>80</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="O98" t="s" s="2">
+      <c r="P98" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>38</v>
@@ -12730,7 +12727,7 @@
       </c>
       <c r="Z98" s="2"/>
       <c r="AA98" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>38</v>
@@ -12748,7 +12745,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -12765,13 +12762,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12868,13 +12865,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B100" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12973,13 +12970,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B101" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13005,16 +13002,16 @@
         <v>58</v>
       </c>
       <c r="M101" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="O101" t="s" s="2">
+      <c r="P101" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>38</v>
@@ -13063,7 +13060,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -13080,13 +13077,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B102" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13112,13 +13109,13 @@
         <v>46</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13168,7 +13165,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
@@ -13185,13 +13182,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B103" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13217,16 +13214,16 @@
         <v>97</v>
       </c>
       <c r="M103" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P103" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>38</v>
@@ -13275,7 +13272,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -13292,13 +13289,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13324,16 +13321,16 @@
         <v>46</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="P104" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>38</v>
@@ -13382,7 +13379,7 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -13399,13 +13396,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B105" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13428,19 +13425,19 @@
         <v>80</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M105" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="O105" t="s" s="2">
+      <c r="P105" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>38</v>
@@ -13489,7 +13486,7 @@
         <v>38</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -13506,13 +13503,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B106" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13538,16 +13535,16 @@
         <v>46</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="O106" t="s" s="2">
+      <c r="P106" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="Q106" t="s" s="2">
         <v>38</v>
@@ -13596,7 +13593,7 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
@@ -13613,13 +13610,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B107" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13667,43 +13664,43 @@
         <v>38</v>
       </c>
       <c r="U107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG107" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
@@ -13720,13 +13717,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B108" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13752,13 +13749,13 @@
         <v>46</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13772,43 +13769,43 @@
         <v>38</v>
       </c>
       <c r="U108" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG108" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -13825,13 +13822,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B109" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13854,16 +13851,16 @@
         <v>80</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13913,7 +13910,7 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -13925,18 +13922,18 @@
         <v>42</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B110" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13959,16 +13956,16 @@
         <v>80</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -14018,7 +14015,7 @@
         <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
@@ -14030,12 +14027,12 @@
         <v>42</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>57</v>
@@ -14081,7 +14078,7 @@
       </c>
       <c r="R111" s="2"/>
       <c r="S111" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>38</v>
@@ -14140,7 +14137,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>62</v>
@@ -14169,7 +14166,7 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>64</v>
@@ -14243,7 +14240,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>29</v>
@@ -14275,10 +14272,10 @@
         <v>41</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -14346,7 +14343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>44</v>
@@ -14449,7 +14446,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>50</v>
@@ -14552,7 +14549,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>57</v>
@@ -14598,7 +14595,7 @@
       </c>
       <c r="R116" s="2"/>
       <c r="S116" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>38</v>
@@ -14657,7 +14654,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>62</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="509">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,87 +809,13 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/ValueSet/serviceRequest-code-vs</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode</t>
-  </si>
-  <si>
-    <t>alternativeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/additional-code}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:alternativeCode.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -906,9 +832,6 @@
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codified order entry details which are based on order context.</t>
@@ -1493,9 +1416,28 @@
     <t>Extension.extension.value[x].type.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
     <t>http://helsenorge.no/fhir/ValueSet/cs-8116-Dnr-Fnr-vs</t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
     <t>Extension.extension:ident.value[x].type.coding.id</t>
   </si>
   <si>
@@ -1608,6 +1550,21 @@
   </si>
   <si>
     <t>Extension.extension.value[x].type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
   </si>
   <si>
     <t>Extension.extension:ident.value[x].system</t>
@@ -2125,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
@@ -2133,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
@@ -2149,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
@@ -2157,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
@@ -2203,7 +2160,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
@@ -2271,7 +2228,7 @@
         <v>36</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63">
@@ -2287,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65">
@@ -2295,15 +2252,15 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67">
@@ -2319,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69">
@@ -2327,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70">
@@ -2373,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76">
@@ -2441,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK117"/>
+  <dimension ref="A1:AK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2463,7 +2420,7 @@
     <col min="1" max="1" width="29.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="15.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="42.984375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -2484,7 +2441,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="122.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="66.8203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="9.546875" customWidth="true" bestFit="true"/>
@@ -6029,11 +5986,13 @@
         <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Z34" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="AA34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>38</v>
@@ -6071,21 +6030,21 @@
         <v>67</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -6094,18 +6053,20 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>38</v>
@@ -6130,13 +6091,13 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
@@ -6154,19 +6115,19 @@
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -6174,21 +6135,21 @@
         <v>67</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
@@ -6197,21 +6158,21 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="P36" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6247,31 +6208,31 @@
         <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -6279,23 +6240,21 @@
         <v>67</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -6304,18 +6263,20 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>38</v>
@@ -6364,19 +6325,19 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38">
@@ -6384,10 +6345,10 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6487,21 +6448,21 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
@@ -6516,12 +6477,14 @@
         <v>51</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>38</v>
@@ -6590,10 +6553,10 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6601,10 +6564,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
@@ -6613,19 +6576,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
@@ -6633,7 +6596,7 @@
       </c>
       <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>38</v>
@@ -6675,19 +6638,19 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -6695,10 +6658,10 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6718,18 +6681,20 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>38</v>
@@ -6739,7 +6704,7 @@
         <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>38</v>
@@ -6754,11 +6719,13 @@
         <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Z41" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="AA41" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>38</v>
@@ -6776,7 +6743,7 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -6796,10 +6763,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6810,7 +6777,7 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
@@ -6822,20 +6789,18 @@
         <v>80</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6883,13 +6848,13 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
@@ -6903,10 +6868,10 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6926,23 +6891,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6990,7 +6951,7 @@
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -6999,10 +6960,10 @@
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -7010,14 +6971,14 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -7033,19 +6994,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -7071,31 +7032,31 @@
         <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>279</v>
+        <v>56</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -7104,10 +7065,10 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -7115,10 +7076,10 @@
         <v>67</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7135,23 +7096,25 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>38</v>
@@ -7176,13 +7139,13 @@
         <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>38</v>
@@ -7200,7 +7163,7 @@
         <v>38</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -7220,10 +7183,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7231,7 +7194,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7246,18 +7209,20 @@
         <v>80</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="P46" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7281,13 +7246,13 @@
         <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>38</v>
@@ -7305,10 +7270,10 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>293</v>
+        <v>155</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
@@ -7317,7 +7282,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
@@ -7348,19 +7313,23 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7372,7 +7341,7 @@
         <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="V47" t="s" s="2">
         <v>38</v>
@@ -7408,7 +7377,7 @@
         <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -7417,10 +7386,10 @@
         <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
@@ -7428,21 +7397,21 @@
         <v>67</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
@@ -7451,19 +7420,19 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7477,7 +7446,7 @@
         <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="V48" t="s" s="2">
         <v>38</v>
@@ -7501,31 +7470,31 @@
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
@@ -7533,10 +7502,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7547,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
@@ -7559,16 +7528,16 @@
         <v>80</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -7618,7 +7587,7 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7627,10 +7596,10 @@
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>66</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50">
@@ -7638,10 +7607,10 @@
         <v>67</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7664,16 +7633,16 @@
         <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7684,7 +7653,7 @@
         <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>38</v>
@@ -7699,13 +7668,13 @@
         <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7723,7 +7692,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7735,7 +7704,7 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51">
@@ -7743,10 +7712,10 @@
         <v>67</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7769,16 +7738,16 @@
         <v>80</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7828,7 +7797,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7848,14 +7817,14 @@
         <v>67</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7871,18 +7840,20 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>38</v>
@@ -7931,7 +7902,7 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -7940,10 +7911,10 @@
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
@@ -7951,21 +7922,21 @@
         <v>67</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -7974,20 +7945,18 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>38</v>
@@ -8024,31 +7993,31 @@
         <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
@@ -8056,10 +8025,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8076,26 +8045,22 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8119,13 +8084,13 @@
         <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="AB54" t="s" s="2">
         <v>38</v>
@@ -8143,7 +8108,7 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -8163,14 +8128,14 @@
         <v>67</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
@@ -8189,20 +8154,16 @@
         <v>80</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>63</v>
+        <v>326</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8226,13 +8187,13 @@
         <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
         <v>38</v>
@@ -8250,7 +8211,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8270,14 +8231,14 @@
         <v>67</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -8296,20 +8257,18 @@
         <v>80</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>58</v>
+        <v>331</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8321,7 +8280,7 @@
         <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
         <v>38</v>
@@ -8357,7 +8316,7 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -8369,7 +8328,7 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>324</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57">
@@ -8377,14 +8336,14 @@
         <v>67</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
@@ -8403,16 +8362,16 @@
         <v>80</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8426,7 +8385,7 @@
         <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="V57" t="s" s="2">
         <v>38</v>
@@ -8438,13 +8397,11 @@
         <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>38</v>
@@ -8462,7 +8419,7 @@
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8482,21 +8439,21 @@
         <v>67</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>38</v>
@@ -8508,16 +8465,16 @@
         <v>80</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8567,19 +8524,19 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59">
@@ -8587,10 +8544,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8601,7 +8558,7 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8613,16 +8570,16 @@
         <v>80</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>181</v>
+        <v>350</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -8648,13 +8605,13 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
@@ -8672,19 +8629,19 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60">
@@ -8692,10 +8649,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8706,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
@@ -8718,16 +8675,16 @@
         <v>80</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8777,19 +8734,19 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61">
@@ -8797,21 +8754,21 @@
         <v>67</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -8823,16 +8780,16 @@
         <v>80</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8858,13 +8815,13 @@
         <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>38</v>
@@ -8882,19 +8839,19 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
@@ -8902,21 +8859,21 @@
         <v>67</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -8928,15 +8885,17 @@
         <v>80</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>38</v>
@@ -8985,19 +8944,19 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63">
@@ -9005,10 +8964,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9019,7 +8978,7 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9028,18 +8987,20 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -9064,13 +9025,13 @@
         <v>38</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>347</v>
+        <v>38</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="AB63" t="s" s="2">
         <v>38</v>
@@ -9088,19 +9049,19 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64">
@@ -9108,21 +9069,21 @@
         <v>67</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -9131,18 +9092,20 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -9191,19 +9154,19 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65">
@@ -9211,21 +9174,21 @@
         <v>67</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -9237,16 +9200,16 @@
         <v>80</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9296,13 +9259,13 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>42</v>
@@ -9316,21 +9279,21 @@
         <v>67</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9345,15 +9308,17 @@
         <v>63</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="P66" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9377,11 +9342,13 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Z66" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="AA66" t="s" s="2">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
@@ -9399,13 +9366,13 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
@@ -9419,14 +9386,14 @@
         <v>67</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
@@ -9442,19 +9409,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9504,7 +9471,7 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -9516,7 +9483,7 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -9524,10 +9491,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9538,7 +9505,7 @@
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -9550,16 +9517,16 @@
         <v>80</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9585,13 +9552,13 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
@@ -9609,13 +9576,13 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
@@ -9629,10 +9596,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9652,19 +9619,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>198</v>
+        <v>402</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9714,7 +9681,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9731,13 +9698,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9757,20 +9724,18 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>38</v>
@@ -9795,13 +9760,13 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>38</v>
@@ -9819,7 +9784,7 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9831,18 +9796,18 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9853,7 +9818,7 @@
         <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
@@ -9862,20 +9827,18 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>38</v>
@@ -9924,30 +9887,30 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>387</v>
+        <v>49</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>392</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>392</v>
+        <v>50</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9955,7 +9918,7 @@
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -9970,17 +9933,15 @@
         <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>393</v>
+        <v>51</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
         <v>38</v>
@@ -10017,19 +9978,19 @@
         <v>38</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>392</v>
+        <v>56</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -10041,32 +10002,34 @@
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="E73" t="s" s="2">
-        <v>397</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>38</v>
@@ -10075,17 +10038,15 @@
         <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>398</v>
+        <v>51</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>399</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>38</v>
@@ -10134,7 +10095,7 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>396</v>
+        <v>56</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10146,18 +10107,18 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10168,7 +10129,7 @@
         <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
@@ -10177,20 +10138,18 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>404</v>
+        <v>47</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>38</v>
@@ -10239,41 +10198,41 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>402</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10282,23 +10241,19 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>38</v>
       </c>
@@ -10322,31 +10277,31 @@
         <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -10358,18 +10313,18 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>415</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10377,10 +10332,10 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
@@ -10392,16 +10347,16 @@
         <v>38</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>416</v>
+        <v>58</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>417</v>
+        <v>59</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>418</v>
+        <v>60</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>419</v>
+        <v>61</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -10409,7 +10364,7 @@
       </c>
       <c r="R76" s="2"/>
       <c r="S76" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>38</v>
@@ -10451,30 +10406,30 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>415</v>
+        <v>57</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10494,19 +10449,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>46</v>
+        <v>419</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10556,7 +10511,7 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>420</v>
+        <v>62</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10573,27 +10528,29 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="E78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>38</v>
@@ -10602,17 +10559,15 @@
         <v>38</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>425</v>
+        <v>29</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10661,7 +10616,7 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>423</v>
+        <v>56</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
@@ -10673,18 +10628,18 @@
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>29</v>
+        <v>412</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10695,7 +10650,7 @@
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -10707,13 +10662,13 @@
         <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>431</v>
+        <v>47</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>432</v>
+        <v>48</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10764,30 +10719,30 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10798,7 +10753,7 @@
         <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -10810,13 +10765,13 @@
         <v>38</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -10855,42 +10810,42 @@
         <v>38</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>50</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>50</v>
+        <v>416</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10901,7 +10856,7 @@
         <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
@@ -10913,22 +10868,24 @@
         <v>38</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R81" s="2"/>
       <c r="S81" t="s" s="2">
-        <v>38</v>
+        <v>424</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>38</v>
@@ -10958,58 +10915,56 @@
         <v>38</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="B82" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="C82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>38</v>
@@ -11018,13 +10973,13 @@
         <v>38</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -11075,30 +11030,30 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11195,24 +11150,24 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>38</v>
@@ -11227,12 +11182,14 @@
         <v>51</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>38</v>
@@ -11298,13 +11255,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11312,7 +11269,7 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>45</v>
@@ -11321,30 +11278,32 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P85" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R85" s="2"/>
       <c r="S85" t="s" s="2">
-        <v>435</v>
+        <v>38</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>38</v>
@@ -11362,13 +11321,13 @@
         <v>38</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>38</v>
@@ -11386,30 +11345,30 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11429,21 +11388,23 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>444</v>
+        <v>63</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="P86" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>38</v>
       </c>
@@ -11467,13 +11428,13 @@
         <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>38</v>
@@ -11491,7 +11452,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -11508,29 +11469,27 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>38</v>
@@ -11539,13 +11498,13 @@
         <v>38</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11596,41 +11555,41 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>38</v>
@@ -11642,15 +11601,17 @@
         <v>38</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>38</v>
@@ -11687,42 +11648,42 @@
         <v>38</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11730,10 +11691,10 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
@@ -11742,19 +11703,23 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>51</v>
+        <v>443</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>38</v>
       </c>
@@ -11778,31 +11743,29 @@
         <v>38</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="Z89" s="2"/>
       <c r="AA89" t="s" s="2">
-        <v>38</v>
+        <v>448</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11814,18 +11777,18 @@
         <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11833,7 +11796,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>45</v>
@@ -11848,24 +11811,22 @@
         <v>38</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" t="s" s="2">
-        <v>449</v>
+        <v>38</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>38</v>
@@ -11907,10 +11868,10 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>45</v>
@@ -11924,24 +11885,24 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
@@ -11953,15 +11914,17 @@
         <v>38</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -11998,36 +11961,36 @@
         <v>38</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>454</v>
@@ -12041,7 +12004,7 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>
@@ -12053,19 +12016,23 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>47</v>
+        <v>456</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>38</v>
       </c>
@@ -12113,7 +12080,7 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -12122,32 +12089,32 @@
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
@@ -12156,19 +12123,19 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>121</v>
+        <v>463</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12206,42 +12173,42 @@
         <v>38</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>56</v>
+        <v>466</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12249,7 +12216,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>45</v>
@@ -12258,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>80</v>
@@ -12267,16 +12234,16 @@
         <v>97</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>139</v>
+        <v>469</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>142</v>
+        <v>471</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12301,13 +12268,13 @@
         <v>38</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>38</v>
@@ -12325,7 +12292,7 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>146</v>
+        <v>472</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
@@ -12342,13 +12309,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12371,19 +12338,19 @@
         <v>80</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>148</v>
+        <v>475</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>149</v>
+        <v>476</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="P95" t="s" s="2">
-        <v>151</v>
+        <v>477</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -12408,13 +12375,13 @@
         <v>38</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>38</v>
@@ -12432,7 +12399,7 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>155</v>
+        <v>478</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -12449,13 +12416,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12475,19 +12442,23 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>47</v>
+        <v>481</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="Q96" t="s" s="2">
         <v>38</v>
       </c>
@@ -12535,7 +12506,7 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>49</v>
+        <v>485</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -12544,32 +12515,32 @@
         <v>45</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>38</v>
@@ -12578,21 +12549,23 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>121</v>
+        <v>488</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>137</v>
+        <v>489</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="P97" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="Q97" t="s" s="2">
         <v>38</v>
       </c>
@@ -12628,42 +12601,42 @@
         <v>38</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12671,7 +12644,7 @@
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>45</v>
@@ -12686,19 +12659,19 @@
         <v>80</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>38</v>
@@ -12711,7 +12684,7 @@
         <v>38</v>
       </c>
       <c r="U98" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="V98" t="s" s="2">
         <v>38</v>
@@ -12723,11 +12696,13 @@
         <v>38</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Z98" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA98" t="s" s="2">
-        <v>468</v>
+        <v>38</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>38</v>
@@ -12745,13 +12720,13 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>42</v>
@@ -12762,13 +12737,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12776,7 +12751,7 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>45</v>
@@ -12788,18 +12763,20 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>38</v>
@@ -12812,7 +12789,7 @@
         <v>38</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>38</v>
@@ -12848,7 +12825,7 @@
         <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -12857,32 +12834,32 @@
         <v>45</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
@@ -12891,19 +12868,19 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -12941,42 +12918,42 @@
         <v>38</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12984,7 +12961,7 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
@@ -12999,20 +12976,18 @@
         <v>80</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>475</v>
+        <v>179</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>476</v>
+        <v>180</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
         <v>38</v>
       </c>
@@ -13060,7 +13035,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>479</v>
+        <v>182</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -13072,18 +13047,18 @@
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>480</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>481</v>
+        <v>57</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13091,7 +13066,7 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>45</v>
@@ -13103,19 +13078,19 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>483</v>
+        <v>60</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>484</v>
+        <v>61</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13123,7 +13098,7 @@
       </c>
       <c r="R102" s="2"/>
       <c r="S102" t="s" s="2">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>38</v>
@@ -13165,30 +13140,30 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>485</v>
+        <v>57</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>486</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>487</v>
+        <v>62</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13196,10 +13171,10 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>38</v>
@@ -13208,23 +13183,19 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>97</v>
+        <v>501</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>488</v>
+        <v>64</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
         <v>38</v>
       </c>
@@ -13272,7 +13243,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>491</v>
+        <v>62</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -13289,13 +13260,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>492</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>493</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13306,7 +13277,7 @@
         <v>39</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>38</v>
@@ -13315,23 +13286,19 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>38</v>
       </c>
@@ -13379,30 +13346,30 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>499</v>
+        <v>44</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13422,23 +13389,19 @@
         <v>38</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>500</v>
+        <v>47</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>38</v>
       </c>
@@ -13486,7 +13449,7 @@
         <v>38</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>504</v>
+        <v>49</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -13495,21 +13458,21 @@
         <v>45</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>505</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>506</v>
+        <v>50</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13520,7 +13483,7 @@
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>38</v>
@@ -13529,23 +13492,19 @@
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>38</v>
       </c>
@@ -13581,42 +13540,42 @@
         <v>38</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>507</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>508</v>
+        <v>57</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13624,7 +13583,7 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>45</v>
@@ -13636,35 +13595,33 @@
         <v>38</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R107" s="2"/>
       <c r="S107" t="s" s="2">
-        <v>38</v>
+        <v>503</v>
       </c>
       <c r="T107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="U107" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="V107" t="s" s="2">
         <v>38</v>
@@ -13700,30 +13657,30 @@
         <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>509</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>510</v>
+        <v>62</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13743,20 +13700,18 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>38</v>
@@ -13769,7 +13724,7 @@
         <v>38</v>
       </c>
       <c r="U108" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="V108" t="s" s="2">
         <v>38</v>
@@ -13805,7 +13760,7 @@
         <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -13817,941 +13772,6 @@
         <v>42</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R109" s="2"/>
-      <c r="S109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R110" s="2"/>
-      <c r="S110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R111" s="2"/>
-      <c r="S111" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R112" s="2"/>
-      <c r="S112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R113" s="2"/>
-      <c r="S113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F114" s="2"/>
-      <c r="G114" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R114" s="2"/>
-      <c r="S114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F115" s="2"/>
-      <c r="G115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R115" s="2"/>
-      <c r="S115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R116" s="2"/>
-      <c r="S116" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R117" s="2"/>
-      <c r="S117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK117" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,10 +541,6 @@
   </si>
   <si>
     <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uuid-format:identifier value må være UUID. {value.matches('^[0-9a-fA-F]{8}-[0-9a-fA-F]{4}-[1-5][0-9a-fA-F]{3}-[89ab][0-9a-fA-F]{3}-[0-9a-fA-F]{12}$')}</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.period</t>
@@ -2082,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
@@ -2090,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
@@ -2106,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
@@ -2114,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48">
@@ -2122,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49">
@@ -2160,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54">
@@ -2228,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63">
@@ -2244,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65">
@@ -2252,15 +2248,15 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="67">
@@ -2276,7 +2272,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69">
@@ -2284,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70">
@@ -2292,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -2330,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76">
@@ -2398,7 +2394,7 @@
         <v>36</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -4657,10 +4653,10 @@
         <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4683,16 +4679,16 @@
         <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4742,7 +4738,7 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -4754,7 +4750,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -4762,10 +4758,10 @@
         <v>67</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4788,16 +4784,16 @@
         <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4847,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -4859,7 +4855,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -4867,10 +4863,10 @@
         <v>67</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4893,16 +4889,16 @@
         <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4952,7 +4948,7 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -4972,10 +4968,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5001,13 +4997,13 @@
         <v>58</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -5057,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -5077,14 +5073,14 @@
         <v>67</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5103,16 +5099,16 @@
         <v>80</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5162,7 +5158,7 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -5174,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
@@ -5182,14 +5178,14 @@
         <v>67</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5208,16 +5204,16 @@
         <v>80</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -5267,7 +5263,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -5279,7 +5275,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
@@ -5287,14 +5283,14 @@
         <v>67</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
@@ -5316,16 +5312,16 @@
         <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="P28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>38</v>
@@ -5374,7 +5370,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -5394,10 +5390,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5423,13 +5419,13 @@
         <v>97</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5440,7 +5436,7 @@
         <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>38</v>
@@ -5458,11 +5454,11 @@
         <v>143</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AB29" t="s" s="2">
         <v>38</v>
       </c>
@@ -5479,7 +5475,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5491,7 +5487,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -5499,10 +5495,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5528,13 +5524,13 @@
         <v>97</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -5545,7 +5541,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5563,11 +5559,11 @@
         <v>143</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA30" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AB30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5596,7 +5592,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
@@ -5604,10 +5600,10 @@
         <v>67</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5633,16 +5629,16 @@
         <v>63</v>
       </c>
       <c r="M31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="O31" t="s" s="2">
+      <c r="P31" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5671,7 +5667,7 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>38</v>
@@ -5689,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5709,10 +5705,10 @@
         <v>67</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5738,20 +5734,20 @@
         <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>38</v>
@@ -5775,11 +5771,11 @@
         <v>143</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AA32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AB32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5796,7 +5792,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -5808,7 +5804,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33">
@@ -5816,10 +5812,10 @@
         <v>67</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5842,26 +5838,26 @@
         <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O33" t="s" s="2">
+      <c r="P33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="P33" t="s" s="2">
+      <c r="Q33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Q33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="S33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5905,7 +5901,7 @@
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -5925,14 +5921,14 @@
         <v>67</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -5954,13 +5950,13 @@
         <v>63</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -5986,14 +5982,14 @@
         <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AB34" t="s" s="2">
         <v>38</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -6030,14 +6026,14 @@
         <v>67</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -6059,13 +6055,13 @@
         <v>63</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6091,14 +6087,14 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -6124,7 +6120,7 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>66</v>
@@ -6135,10 +6131,10 @@
         <v>67</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6161,17 +6157,17 @@
         <v>80</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>38</v>
@@ -6220,7 +6216,7 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -6240,10 +6236,10 @@
         <v>67</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6266,16 +6262,16 @@
         <v>80</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -6325,7 +6321,7 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6337,7 +6333,7 @@
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38">
@@ -6345,10 +6341,10 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6448,10 +6444,10 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6553,10 +6549,10 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6582,13 +6578,13 @@
         <v>46</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
@@ -6638,16 +6634,16 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>66</v>
@@ -6658,10 +6654,10 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6687,13 +6683,13 @@
         <v>58</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -6704,7 +6700,7 @@
         <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>38</v>
@@ -6722,28 +6718,28 @@
         <v>152</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AA41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AA41" t="s" s="2">
+      <c r="AB41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -6763,10 +6759,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6792,13 +6788,13 @@
         <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6848,7 +6844,7 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -6868,10 +6864,10 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6971,10 +6967,10 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7076,10 +7072,10 @@
         <v>67</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7183,10 +7179,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7290,10 +7286,10 @@
         <v>67</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7319,7 +7315,7 @@
         <v>58</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>158</v>
@@ -7389,7 +7385,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48">
@@ -7397,10 +7393,10 @@
         <v>67</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7502,10 +7498,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7528,16 +7524,16 @@
         <v>80</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -7587,7 +7583,7 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7599,7 +7595,7 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
@@ -7607,10 +7603,10 @@
         <v>67</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7633,16 +7629,16 @@
         <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7692,7 +7688,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7704,7 +7700,7 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51">
@@ -7712,10 +7708,10 @@
         <v>67</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7741,13 +7737,13 @@
         <v>46</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7797,7 +7793,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7817,14 +7813,14 @@
         <v>67</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7843,16 +7839,16 @@
         <v>80</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7902,7 +7898,7 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -7914,7 +7910,7 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -7922,14 +7918,14 @@
         <v>67</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
@@ -7948,13 +7944,13 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -8005,7 +8001,7 @@
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -8025,10 +8021,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8051,13 +8047,13 @@
         <v>80</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -8084,14 +8080,14 @@
         <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA54" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AB54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8108,7 +8104,7 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -8128,14 +8124,14 @@
         <v>67</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
@@ -8154,13 +8150,13 @@
         <v>80</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -8211,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8231,14 +8227,14 @@
         <v>67</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -8257,16 +8253,16 @@
         <v>80</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -8316,7 +8312,7 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -8328,7 +8324,7 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57">
@@ -8336,14 +8332,14 @@
         <v>67</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
@@ -8365,13 +8361,13 @@
         <v>63</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8401,7 +8397,7 @@
       </c>
       <c r="Z57" s="2"/>
       <c r="AA57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>38</v>
@@ -8419,7 +8415,7 @@
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8439,14 +8435,14 @@
         <v>67</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8465,16 +8461,16 @@
         <v>80</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8524,7 +8520,7 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -8536,7 +8532,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59">
@@ -8544,10 +8540,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8573,13 +8569,13 @@
         <v>63</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -8605,14 +8601,14 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z59" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA59" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8629,7 +8625,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8649,10 +8645,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8675,16 +8671,16 @@
         <v>80</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8734,7 +8730,7 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -8746,7 +8742,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61">
@@ -8754,10 +8750,10 @@
         <v>67</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8783,13 +8779,13 @@
         <v>63</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8815,14 +8811,14 @@
         <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA61" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AB61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8839,7 +8835,7 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -8859,10 +8855,10 @@
         <v>67</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8885,16 +8881,16 @@
         <v>80</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -8944,7 +8940,7 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -8956,7 +8952,7 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63">
@@ -8964,10 +8960,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8990,16 +8986,16 @@
         <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
@@ -9049,7 +9045,7 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -9061,7 +9057,7 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64">
@@ -9069,14 +9065,14 @@
         <v>67</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9095,16 +9091,16 @@
         <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9154,7 +9150,7 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9166,7 +9162,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
@@ -9174,10 +9170,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9200,16 +9196,16 @@
         <v>80</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9259,7 +9255,7 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -9271,7 +9267,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66">
@@ -9279,14 +9275,14 @@
         <v>67</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
@@ -9308,16 +9304,16 @@
         <v>63</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="O66" t="s" s="2">
+      <c r="P66" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
@@ -9342,14 +9338,14 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA66" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9366,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -9386,10 +9382,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9412,16 +9408,16 @@
         <v>38</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9471,7 +9467,7 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -9491,10 +9487,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9520,13 +9516,13 @@
         <v>46</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="O68" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9576,7 +9572,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9596,10 +9592,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9622,16 +9618,16 @@
         <v>38</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9681,7 +9677,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9693,12 +9689,12 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>29</v>
@@ -9730,10 +9726,10 @@
         <v>41</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -9801,7 +9797,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>44</v>
@@ -9904,7 +9900,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>50</v>
@@ -10007,16 +10003,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E73" t="s" s="2">
         <v>38</v>
@@ -10112,13 +10108,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10215,13 +10211,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10318,13 +10314,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10364,7 +10360,7 @@
       </c>
       <c r="R76" s="2"/>
       <c r="S76" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>38</v>
@@ -10423,13 +10419,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10452,16 +10448,16 @@
         <v>38</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10528,16 +10524,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E78" t="s" s="2">
         <v>38</v>
@@ -10633,13 +10629,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10736,13 +10732,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10839,13 +10835,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10885,7 +10881,7 @@
       </c>
       <c r="R81" s="2"/>
       <c r="S81" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>38</v>
@@ -10944,13 +10940,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11047,13 +11043,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11150,13 +11146,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11255,13 +11251,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11362,13 +11358,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11469,13 +11465,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C87" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11572,13 +11568,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11677,13 +11673,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11706,19 +11702,19 @@
         <v>80</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="O89" t="s" s="2">
+      <c r="P89" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -11747,25 +11743,25 @@
       </c>
       <c r="Z89" s="2"/>
       <c r="AA89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG89" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11782,13 +11778,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11885,13 +11881,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11990,13 +11986,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12022,16 +12018,16 @@
         <v>58</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="O92" t="s" s="2">
+      <c r="P92" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -12080,7 +12076,7 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -12097,13 +12093,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12129,13 +12125,13 @@
         <v>46</v>
       </c>
       <c r="M93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12185,7 +12181,7 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -12202,13 +12198,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12234,16 +12230,16 @@
         <v>97</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="P94" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12292,7 +12288,7 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
@@ -12309,13 +12305,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12341,16 +12337,16 @@
         <v>46</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="P95" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -12399,7 +12395,7 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -12416,13 +12412,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12445,19 +12441,19 @@
         <v>80</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="O96" t="s" s="2">
+      <c r="P96" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>38</v>
@@ -12506,7 +12502,7 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -12523,13 +12519,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12555,16 +12551,16 @@
         <v>46</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="O97" t="s" s="2">
+      <c r="P97" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>38</v>
@@ -12613,7 +12609,7 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12630,13 +12626,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12737,13 +12733,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12842,13 +12838,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B100" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12871,16 +12867,16 @@
         <v>80</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -12930,7 +12926,7 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -12942,18 +12938,18 @@
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12976,16 +12972,16 @@
         <v>80</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13035,7 +13031,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -13047,12 +13043,12 @@
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>57</v>
@@ -13098,7 +13094,7 @@
       </c>
       <c r="R102" s="2"/>
       <c r="S102" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>38</v>
@@ -13157,7 +13153,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>62</v>
@@ -13186,7 +13182,7 @@
         <v>38</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>64</v>
@@ -13260,7 +13256,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>29</v>
@@ -13292,10 +13288,10 @@
         <v>41</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13363,7 +13359,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>44</v>
@@ -13466,7 +13462,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>50</v>
@@ -13569,7 +13565,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>57</v>
@@ -13615,7 +13611,7 @@
       </c>
       <c r="R107" s="2"/>
       <c r="S107" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T107" t="s" s="2">
         <v>38</v>
@@ -13674,7 +13670,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>62</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2271,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5526" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,20 +406,20 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Schedule.extension:firstFreeSlot</t>
-  </si>
-  <si>
-    <t>firstFreeSlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-available-free-slot}
+    <t>Schedule.extension:firstAndLastFreeSlots</t>
+  </si>
+  <si>
+    <t>firstAndLastFreeSlots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot}
 </t>
   </si>
   <si>
-    <t>Første ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Første ledige slot i timebok. Tid og referanse</t>
+    <t>Første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -1562,43 +1562,43 @@
 All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
-    <t>hn-extension-first-available-free-slot</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-available-free-slot</t>
-  </si>
-  <si>
-    <t>HnExtensionFirstAvailableFreeSlot</t>
+    <t>hn-extension-first-and-last-available-free-slot</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot</t>
+  </si>
+  <si>
+    <t>HnExtensionFirstLastAvailableFreeSlot</t>
   </si>
   <si>
     <t>element:Schedule</t>
   </si>
   <si>
-    <t>Extension.extension:start</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>Extension.extension:start.id</t>
+    <t>Extension.extension:firstStart</t>
+  </si>
+  <si>
+    <t>firstStart</t>
+  </si>
+  <si>
+    <t>Extension.extension:firstStart.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:start.extension</t>
+    <t>Extension.extension:firstStart.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:start.url</t>
+    <t>Extension.extension:firstStart.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t>Extension.extension:start.value[x]</t>
+    <t>Extension.extension:firstStart.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -1607,22 +1607,22 @@
     <t>Start tidspunkt for første ledige slot i timebok.</t>
   </si>
   <si>
-    <t>Extension.extension:freeSlot</t>
-  </si>
-  <si>
-    <t>freeSlot</t>
-  </si>
-  <si>
-    <t>Extension.extension:freeSlot.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:freeSlot.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:freeSlot.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:freeSlot.value[x]</t>
+    <t>Extension.extension:firstFreeSlot</t>
+  </si>
+  <si>
+    <t>firstFreeSlot</t>
+  </si>
+  <si>
+    <t>Extension.extension:firstFreeSlot.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:firstFreeSlot.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:firstFreeSlot.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:firstFreeSlot.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Slot)
@@ -1630,6 +1630,48 @@
   </si>
   <si>
     <t>Referanse til første ledige slot i timebok.</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastStart</t>
+  </si>
+  <si>
+    <t>lastStart</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastStart.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastStart.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastStart.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastStart.value[x]</t>
+  </si>
+  <si>
+    <t>Start tidspunkt for siste ledige slot i timebok.</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastFreeSlot</t>
+  </si>
+  <si>
+    <t>lastFreeSlot</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastFreeSlot.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastFreeSlot.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastFreeSlot.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:lastFreeSlot.value[x]</t>
+  </si>
+  <si>
+    <t>Referanse til siste ledige slot i timebok.</t>
   </si>
   <si>
     <t>base64Binary
@@ -2687,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85">
@@ -2695,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86">
@@ -2711,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88">
@@ -2719,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89">
@@ -2765,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95">
@@ -2833,7 +2875,7 @@
         <v>36</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
@@ -2849,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106">
@@ -2857,15 +2899,15 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108">
@@ -2881,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110">
@@ -2889,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111">
@@ -2935,7 +2977,7 @@
         <v>20</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117">
@@ -3003,7 +3045,7 @@
         <v>36</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3055,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK161"/>
+  <dimension ref="A1:AK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3022,10 +3064,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.65234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="42.984375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -15649,24 +15691,26 @@
         <v>490</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="E121" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>38</v>
@@ -15675,24 +15719,22 @@
         <v>38</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R121" s="2"/>
       <c r="S121" t="s" s="2">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>38</v>
@@ -15734,19 +15776,19 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
@@ -15754,10 +15796,10 @@
         <v>490</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>62</v>
+        <v>515</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15768,7 +15810,7 @@
         <v>39</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>38</v>
@@ -15780,13 +15822,13 @@
         <v>38</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>513</v>
+        <v>46</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -15837,7 +15879,7 @@
         <v>38</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
@@ -15846,21 +15888,21 @@
         <v>45</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>29</v>
+        <v>499</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15871,7 +15913,7 @@
         <v>39</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>38</v>
@@ -15883,13 +15925,13 @@
         <v>38</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>517</v>
+        <v>29</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>518</v>
+        <v>52</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15928,19 +15970,19 @@
         <v>38</v>
       </c>
       <c r="AC123" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE123" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
@@ -15957,13 +15999,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15971,7 +16013,7 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>45</v>
@@ -15986,22 +16028,24 @@
         <v>38</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R124" s="2"/>
       <c r="S124" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>38</v>
@@ -16043,10 +16087,10 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>45</v>
@@ -16060,13 +16104,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>50</v>
+        <v>518</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>50</v>
+        <v>503</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16074,10 +16118,10 @@
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>38</v>
@@ -16089,13 +16133,13 @@
         <v>38</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>51</v>
+        <v>414</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -16134,36 +16178,36 @@
         <v>38</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE125" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>520</v>
@@ -16268,7 +16312,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>522</v>
@@ -16371,7 +16415,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>523</v>
@@ -16474,7 +16518,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>524</v>
@@ -16579,7 +16623,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>525</v>
@@ -16608,17 +16652,15 @@
         <v>38</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M130" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N130" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
         <v>38</v>
@@ -16684,17 +16726,15 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>530</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>38</v>
       </c>
@@ -16706,7 +16746,7 @@
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>38</v>
@@ -16715,22 +16755,24 @@
         <v>38</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R131" s="2"/>
       <c r="S131" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>38</v>
@@ -16772,30 +16814,30 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>532</v>
+        <v>62</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>497</v>
+        <v>62</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16806,7 +16848,7 @@
         <v>39</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>38</v>
@@ -16818,13 +16860,13 @@
         <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>46</v>
+        <v>527</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -16875,7 +16917,7 @@
         <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
@@ -16884,21 +16926,21 @@
         <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>533</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>499</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16909,7 +16951,7 @@
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>38</v>
@@ -16921,13 +16963,13 @@
         <v>38</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>29</v>
+        <v>531</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>52</v>
+        <v>532</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -16966,19 +17008,19 @@
         <v>38</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -16995,13 +17037,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>534</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17009,7 +17051,7 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>45</v>
@@ -17024,24 +17066,22 @@
         <v>38</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R134" s="2"/>
       <c r="S134" t="s" s="2">
-        <v>531</v>
+        <v>38</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>38</v>
@@ -17083,10 +17123,10 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>45</v>
@@ -17100,13 +17140,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>535</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>503</v>
+        <v>50</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17117,7 +17157,7 @@
         <v>45</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>38</v>
@@ -17129,13 +17169,13 @@
         <v>38</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -17174,44 +17214,46 @@
         <v>38</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE135" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="D136" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="E136" t="s" s="2">
         <v>38</v>
       </c>
@@ -17223,7 +17265,7 @@
         <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>38</v>
@@ -17232,13 +17274,13 @@
         <v>38</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -17289,41 +17331,41 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>38</v>
@@ -17335,17 +17377,15 @@
         <v>38</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>38</v>
@@ -17382,42 +17422,42 @@
         <v>38</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17428,32 +17468,28 @@
         <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>38</v>
       </c>
@@ -17477,54 +17513,54 @@
         <v>38</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC138" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17532,7 +17568,7 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>45</v>
@@ -17544,29 +17580,27 @@
         <v>38</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>38</v>
@@ -17584,13 +17618,13 @@
         <v>38</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>38</v>
@@ -17608,30 +17642,30 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17654,15 +17688,17 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>46</v>
+        <v>540</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>47</v>
+        <v>541</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -17711,7 +17747,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -17720,35 +17756,37 @@
         <v>45</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="E141" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>38</v>
@@ -17760,14 +17798,12 @@
         <v>51</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -17804,16 +17840,16 @@
         <v>38</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>56</v>
@@ -17833,13 +17869,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17847,7 +17883,7 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>45</v>
@@ -17859,23 +17895,19 @@
         <v>38</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
         <v>38</v>
       </c>
@@ -17899,11 +17931,13 @@
         <v>38</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z142" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA142" t="s" s="2">
-        <v>550</v>
+        <v>38</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>38</v>
@@ -17921,30 +17955,30 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17955,7 +17989,7 @@
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
@@ -17967,13 +18001,13 @@
         <v>38</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -18012,53 +18046,53 @@
         <v>38</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -18070,16 +18104,16 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -18087,7 +18121,7 @@
       </c>
       <c r="R144" s="2"/>
       <c r="S144" t="s" s="2">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>38</v>
@@ -18117,42 +18151,42 @@
         <v>38</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE144" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18172,23 +18206,19 @@
         <v>38</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>557</v>
+        <v>64</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>38</v>
       </c>
@@ -18236,7 +18266,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>561</v>
+        <v>62</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -18253,13 +18283,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18279,20 +18309,18 @@
         <v>38</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>564</v>
+        <v>47</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -18341,7 +18369,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>567</v>
+        <v>49</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -18350,32 +18378,32 @@
         <v>45</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>38</v>
@@ -18384,23 +18412,21 @@
         <v>38</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>570</v>
+        <v>120</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>571</v>
+        <v>139</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
       </c>
@@ -18436,42 +18462,42 @@
         <v>38</v>
       </c>
       <c r="AC147" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE147" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>573</v>
+        <v>56</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18488,25 +18514,25 @@
         <v>38</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>576</v>
+        <v>141</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>577</v>
+        <v>142</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="P148" t="s" s="2">
-        <v>578</v>
+        <v>144</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>38</v>
@@ -18531,13 +18557,13 @@
         <v>38</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AB148" t="s" s="2">
         <v>38</v>
@@ -18555,7 +18581,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>579</v>
+        <v>148</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -18572,13 +18598,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18601,19 +18627,19 @@
         <v>79</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>582</v>
+        <v>150</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>583</v>
+        <v>151</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>584</v>
+        <v>152</v>
       </c>
       <c r="P149" t="s" s="2">
-        <v>585</v>
+        <v>153</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -18638,13 +18664,13 @@
         <v>38</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AB149" t="s" s="2">
         <v>38</v>
@@ -18662,7 +18688,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>586</v>
+        <v>157</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -18679,13 +18705,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18705,23 +18731,19 @@
         <v>38</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
@@ -18769,7 +18791,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -18778,32 +18800,32 @@
         <v>45</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>38</v>
@@ -18812,23 +18834,21 @@
         <v>38</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P151" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
       </c>
@@ -18840,7 +18860,7 @@
         <v>38</v>
       </c>
       <c r="U151" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="V151" t="s" s="2">
         <v>38</v>
@@ -18864,42 +18884,42 @@
         <v>38</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18922,18 +18942,20 @@
         <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P152" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="P152" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q152" t="s" s="2">
         <v>38</v>
       </c>
@@ -18945,7 +18967,7 @@
         <v>38</v>
       </c>
       <c r="U152" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="V152" t="s" s="2">
         <v>38</v>
@@ -18957,13 +18979,11 @@
         <v>38</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z152" s="2"/>
       <c r="AA152" t="s" s="2">
-        <v>38</v>
+        <v>564</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>38</v>
@@ -18981,13 +19001,13 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>42</v>
@@ -18998,13 +19018,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19024,20 +19044,18 @@
         <v>38</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>38</v>
@@ -19086,7 +19104,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -19095,32 +19113,32 @@
         <v>45</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>38</v>
@@ -19129,19 +19147,19 @@
         <v>38</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -19179,42 +19197,42 @@
         <v>38</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>57</v>
+        <v>570</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19234,27 +19252,29 @@
         <v>38</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>60</v>
+        <v>572</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P155" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P155" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R155" s="2"/>
       <c r="S155" t="s" s="2">
-        <v>515</v>
+        <v>38</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>38</v>
@@ -19296,30 +19316,30 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>57</v>
+        <v>575</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>62</v>
+        <v>576</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>62</v>
+        <v>577</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19330,7 +19350,7 @@
         <v>39</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>38</v>
@@ -19339,18 +19359,20 @@
         <v>38</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>513</v>
+        <v>46</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>64</v>
+        <v>578</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O156" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
@@ -19399,7 +19421,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>62</v>
+        <v>581</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
@@ -19416,13 +19438,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>29</v>
+        <v>582</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>29</v>
+        <v>583</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19430,10 +19452,10 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>38</v>
@@ -19442,19 +19464,23 @@
         <v>38</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P157" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="Q157" t="s" s="2">
         <v>38</v>
       </c>
@@ -19502,30 +19528,30 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>29</v>
+        <v>587</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>44</v>
+        <v>589</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19545,19 +19571,23 @@
         <v>38</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L158" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>47</v>
+        <v>590</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="Q158" t="s" s="2">
         <v>38</v>
       </c>
@@ -19605,7 +19635,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>49</v>
+        <v>593</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -19614,21 +19644,21 @@
         <v>45</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>50</v>
+        <v>595</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19639,7 +19669,7 @@
         <v>39</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>38</v>
@@ -19648,19 +19678,23 @@
         <v>38</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>29</v>
+        <v>596</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="Q159" t="s" s="2">
         <v>38</v>
       </c>
@@ -19696,42 +19730,42 @@
         <v>38</v>
       </c>
       <c r="AC159" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE159" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>56</v>
+        <v>600</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>57</v>
+        <v>601</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>57</v>
+        <v>602</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19739,7 +19773,7 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>45</v>
@@ -19751,27 +19785,29 @@
         <v>38</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P160" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R160" s="2"/>
       <c r="S160" t="s" s="2">
-        <v>598</v>
+        <v>38</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>38</v>
@@ -19813,30 +19849,30 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>62</v>
+        <v>603</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>62</v>
+        <v>604</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19844,7 +19880,7 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>45</v>
@@ -19856,19 +19892,23 @@
         <v>38</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P161" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
@@ -19880,7 +19920,7 @@
         <v>38</v>
       </c>
       <c r="U161" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="V161" t="s" s="2">
         <v>38</v>
@@ -19916,7 +19956,7 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
@@ -19928,6 +19968,1046 @@
         <v>42</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R162" s="2"/>
+      <c r="S162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R163" s="2"/>
+      <c r="S163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R164" s="2"/>
+      <c r="S164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R165" s="2"/>
+      <c r="S165" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R166" s="2"/>
+      <c r="S166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R167" s="2"/>
+      <c r="S167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R168" s="2"/>
+      <c r="S168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK171" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1676,6 +1676,42 @@
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>hn-extension-free-slot-planningHorizon</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon</t>
+  </si>
+  <si>
+    <t>HnExtensionFreeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon</t>
+  </si>
+  <si>
+    <t>freePlanningHorizon</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon.value[x]</t>
+  </si>
+  <si>
+    <t>Start og slut tispunkt for første ledige slot og siste ledige slot i timebok.</t>
   </si>
   <si>
     <t>hn-extension-representant</t>
@@ -2080,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2875,7 +2911,7 @@
         <v>36</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104">
@@ -2891,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106">
@@ -2899,153 +2935,315 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>612</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>614</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>7</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>615</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>616</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>245</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>19</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B145" t="s" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
+    <row r="146">
+      <c r="A146" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>533</v>
+      <c r="B146" t="s" s="2">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +3253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK171"/>
+  <dimension ref="A1:AK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17150,11 +17348,11 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>40</v>
@@ -17172,12 +17370,14 @@
         <v>51</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O135" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>38</v>
@@ -17246,13 +17446,13 @@
         <v>528</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E136" t="s" s="2">
         <v>38</v>
@@ -17351,7 +17551,7 @@
         <v>528</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>497</v>
@@ -17454,7 +17654,7 @@
         <v>528</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>499</v>
@@ -17557,7 +17757,7 @@
         <v>528</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>501</v>
@@ -17600,7 +17800,7 @@
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>38</v>
@@ -17662,7 +17862,7 @@
         <v>528</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>503</v>
@@ -17688,17 +17888,15 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>540</v>
+        <v>172</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -17767,20 +17965,20 @@
         <v>528</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="E141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>45</v>
@@ -17872,7 +18070,7 @@
         <v>528</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>497</v>
@@ -17975,7 +18173,7 @@
         <v>528</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>499</v>
@@ -18078,7 +18276,7 @@
         <v>528</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>501</v>
@@ -18121,7 +18319,7 @@
       </c>
       <c r="R144" s="2"/>
       <c r="S144" t="s" s="2">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>38</v>
@@ -18183,7 +18381,7 @@
         <v>528</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>503</v>
@@ -18194,7 +18392,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>45</v>
@@ -18209,10 +18407,10 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>135</v>
+        <v>511</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>65</v>
@@ -18286,12 +18484,14 @@
         <v>528</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="E146" t="s" s="2">
         <v>38</v>
       </c>
@@ -18303,7 +18503,7 @@
         <v>45</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>38</v>
@@ -18312,13 +18512,13 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -18369,19 +18569,19 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147">
@@ -18389,21 +18589,21 @@
         <v>528</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>38</v>
@@ -18415,17 +18615,15 @@
         <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -18462,31 +18660,31 @@
         <v>38</v>
       </c>
       <c r="AC147" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE147" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148">
@@ -18494,10 +18692,10 @@
         <v>528</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18508,32 +18706,28 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>38</v>
       </c>
@@ -18557,43 +18751,43 @@
         <v>38</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AB148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149">
@@ -18601,10 +18795,10 @@
         <v>528</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18612,7 +18806,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>45</v>
@@ -18624,29 +18818,27 @@
         <v>38</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R149" s="2"/>
       <c r="S149" t="s" s="2">
-        <v>38</v>
+        <v>521</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>38</v>
@@ -18664,13 +18856,13 @@
         <v>38</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AB149" t="s" s="2">
         <v>38</v>
@@ -18688,19 +18880,19 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
@@ -18708,10 +18900,10 @@
         <v>528</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18734,13 +18926,13 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>46</v>
+        <v>511</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>47</v>
+        <v>526</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -18791,7 +18983,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -18800,10 +18992,10 @@
         <v>45</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151">
@@ -18811,21 +19003,21 @@
         <v>528</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>560</v>
+        <v>57</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>561</v>
+        <v>57</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>38</v>
@@ -18837,16 +19029,16 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
@@ -18854,7 +19046,7 @@
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>38</v>
+        <v>529</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>38</v>
@@ -18884,31 +19076,31 @@
         <v>38</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
@@ -18916,10 +19108,10 @@
         <v>528</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>562</v>
+        <v>62</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>563</v>
+        <v>62</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18927,10 +19119,10 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>38</v>
@@ -18939,23 +19131,19 @@
         <v>38</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>200</v>
+        <v>527</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P152" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>38</v>
       </c>
@@ -18979,11 +19167,13 @@
         <v>38</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z152" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA152" t="s" s="2">
-        <v>564</v>
+        <v>38</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>38</v>
@@ -19001,13 +19191,13 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>42</v>
@@ -19018,13 +19208,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>565</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>566</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19035,7 +19225,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19047,13 +19237,13 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>47</v>
+        <v>543</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>48</v>
+        <v>544</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19104,41 +19294,41 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>567</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>568</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>38</v>
@@ -19150,17 +19340,15 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>38</v>
@@ -19197,42 +19385,42 @@
         <v>38</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>569</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>570</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19243,7 +19431,7 @@
         <v>45</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -19252,23 +19440,19 @@
         <v>38</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>571</v>
+        <v>29</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="P155" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
         <v>38</v>
       </c>
@@ -19304,44 +19488,46 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>575</v>
+        <v>56</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19353,26 +19539,24 @@
         <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>578</v>
+        <v>29</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
@@ -19421,30 +19605,30 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>581</v>
+        <v>56</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19452,7 +19636,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>45</v>
@@ -19464,23 +19648,19 @@
         <v>38</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>584</v>
+        <v>47</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>38</v>
       </c>
@@ -19528,7 +19708,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>587</v>
+        <v>49</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -19537,21 +19717,21 @@
         <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19562,7 +19742,7 @@
         <v>39</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -19571,23 +19751,19 @@
         <v>38</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>590</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P158" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
       </c>
@@ -19623,42 +19799,42 @@
         <v>38</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19666,7 +19842,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>45</v>
@@ -19678,29 +19854,27 @@
         <v>38</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>596</v>
+        <v>59</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>597</v>
+        <v>60</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R159" s="2"/>
       <c r="S159" t="s" s="2">
-        <v>38</v>
+        <v>547</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>38</v>
@@ -19742,30 +19916,30 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>600</v>
+        <v>57</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19785,23 +19959,21 @@
         <v>38</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>46</v>
+        <v>552</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>209</v>
+        <v>554</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P160" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
         <v>38</v>
       </c>
@@ -19849,7 +20021,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -19866,49 +20038,47 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="E161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
@@ -19920,7 +20090,7 @@
         <v>38</v>
       </c>
       <c r="U161" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="V161" t="s" s="2">
         <v>38</v>
@@ -19956,30 +20126,30 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>606</v>
+        <v>497</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -19987,7 +20157,7 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>45</v>
@@ -19999,20 +20169,18 @@
         <v>38</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>38</v>
@@ -20025,7 +20193,7 @@
         <v>38</v>
       </c>
       <c r="U162" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="V162" t="s" s="2">
         <v>38</v>
@@ -20061,7 +20229,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -20070,21 +20238,21 @@
         <v>45</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>608</v>
+        <v>499</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20095,7 +20263,7 @@
         <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20104,20 +20272,18 @@
         <v>38</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>38</v>
@@ -20154,42 +20320,42 @@
         <v>38</v>
       </c>
       <c r="AC163" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>610</v>
+        <v>501</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20197,7 +20363,7 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>45</v>
@@ -20209,19 +20375,19 @@
         <v>38</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -20229,7 +20395,7 @@
       </c>
       <c r="R164" s="2"/>
       <c r="S164" t="s" s="2">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>38</v>
@@ -20271,30 +20437,30 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>57</v>
+        <v>503</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20317,24 +20483,22 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R165" s="2"/>
       <c r="S165" t="s" s="2">
-        <v>529</v>
+        <v>38</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>38</v>
@@ -20376,30 +20540,30 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>62</v>
+        <v>562</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>62</v>
+        <v>563</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20410,7 +20574,7 @@
         <v>39</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>38</v>
@@ -20422,13 +20586,13 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>527</v>
+        <v>46</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -20479,7 +20643,7 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>39</v>
@@ -20488,25 +20652,25 @@
         <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>29</v>
+        <v>564</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -20525,15 +20689,17 @@
         <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>616</v>
+        <v>120</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O167" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>38</v>
@@ -20570,19 +20736,19 @@
         <v>38</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>39</v>
@@ -20599,13 +20765,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>44</v>
+        <v>566</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>44</v>
+        <v>567</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20622,22 +20788,26 @@
         <v>38</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="Q168" t="s" s="2">
         <v>38</v>
       </c>
@@ -20661,13 +20831,13 @@
         <v>38</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AB168" t="s" s="2">
         <v>38</v>
@@ -20685,7 +20855,7 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
@@ -20694,21 +20864,21 @@
         <v>45</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>50</v>
+        <v>568</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>50</v>
+        <v>569</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -20719,7 +20889,7 @@
         <v>39</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>38</v>
@@ -20728,19 +20898,23 @@
         <v>38</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P169" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="Q169" t="s" s="2">
         <v>38</v>
       </c>
@@ -20764,54 +20938,54 @@
         <v>38</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE169" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>57</v>
+        <v>570</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>57</v>
+        <v>571</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20819,7 +20993,7 @@
       </c>
       <c r="F170" s="2"/>
       <c r="G170" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
         <v>45</v>
@@ -20834,24 +21008,22 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R170" s="2"/>
       <c r="S170" t="s" s="2">
-        <v>612</v>
+        <v>38</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>38</v>
@@ -20893,10 +21065,10 @@
         <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>45</v>
@@ -20910,24 +21082,24 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>62</v>
+        <v>572</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>62</v>
+        <v>573</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I171" t="s" s="2">
         <v>38</v>
@@ -20939,15 +21111,17 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>38</v>
@@ -20984,30 +21158,2130 @@
         <v>38</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK171" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Q172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z172" s="2"/>
+      <c r="AA172" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P175" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Q175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="Q177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Q178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R178" s="2"/>
+      <c r="S178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="Q179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R179" s="2"/>
+      <c r="S179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P180" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Q180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R180" s="2"/>
+      <c r="S180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R181" s="2"/>
+      <c r="S181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R182" s="2"/>
+      <c r="S182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R183" s="2"/>
+      <c r="S183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R184" s="2"/>
+      <c r="S184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R186" s="2"/>
+      <c r="S186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R187" s="2"/>
+      <c r="S187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R188" s="2"/>
+      <c r="S188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R190" s="2"/>
+      <c r="S190" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R191" s="2"/>
+      <c r="S191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK191" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,20 +406,20 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Schedule.extension:firstAndLastFreeSlots</t>
-  </si>
-  <si>
-    <t>firstAndLastFreeSlots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot}
+    <t>Schedule.extension:freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t>freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon}
 </t>
   </si>
   <si>
-    <t>Første og siste ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
+    <t>Periode for første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -1571,6 +1571,12 @@
     <t>HnExtensionFirstLastAvailableFreeSlot</t>
   </si>
   <si>
+    <t>Første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
+  </si>
+  <si>
     <t>element:Schedule</t>
   </si>
   <si>
@@ -1685,12 +1691,6 @@
   </si>
   <si>
     <t>HnExtensionFreeSlotPlanningHorizon</t>
-  </si>
-  <si>
-    <t>Periode for første og siste ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
   </si>
   <si>
     <t>Extension.extension:freePlanningHorizon</t>
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>127</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68">
@@ -2681,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>128</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74">
@@ -2749,7 +2749,7 @@
         <v>36</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83">
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85">
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86">
@@ -2789,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88">
@@ -2797,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>531</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
@@ -2843,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>532</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
@@ -2911,7 +2911,7 @@
         <v>36</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104">
@@ -3265,7 +3265,7 @@
     <col min="1" max="1" width="41.65234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="22.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="42.984375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -14569,10 +14569,10 @@
         <v>41</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>127</v>
+        <v>493</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>128</v>
+        <v>494</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -14851,13 +14851,13 @@
         <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E111" t="s" s="2">
         <v>38</v>
@@ -14956,10 +14956,10 @@
         <v>490</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15059,10 +15059,10 @@
         <v>490</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15162,10 +15162,10 @@
         <v>490</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="R114" s="2"/>
       <c r="S114" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>38</v>
@@ -15267,10 +15267,10 @@
         <v>490</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15296,7 +15296,7 @@
         <v>414</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>65</v>
@@ -15370,13 +15370,13 @@
         <v>490</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E116" t="s" s="2">
         <v>38</v>
@@ -15475,10 +15475,10 @@
         <v>490</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15578,10 +15578,10 @@
         <v>490</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15681,10 +15681,10 @@
         <v>490</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="R119" s="2"/>
       <c r="S119" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>38</v>
@@ -15786,10 +15786,10 @@
         <v>490</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15812,10 +15812,10 @@
         <v>38</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>65</v>
@@ -15889,13 +15889,13 @@
         <v>490</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E121" t="s" s="2">
         <v>38</v>
@@ -15994,10 +15994,10 @@
         <v>490</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16097,10 +16097,10 @@
         <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16200,10 +16200,10 @@
         <v>490</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="R124" s="2"/>
       <c r="S124" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>38</v>
@@ -16305,10 +16305,10 @@
         <v>490</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16334,7 +16334,7 @@
         <v>414</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>65</v>
@@ -16408,13 +16408,13 @@
         <v>490</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E126" t="s" s="2">
         <v>38</v>
@@ -16513,10 +16513,10 @@
         <v>490</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16616,10 +16616,10 @@
         <v>490</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16719,10 +16719,10 @@
         <v>490</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="R129" s="2"/>
       <c r="S129" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>38</v>
@@ -16824,10 +16824,10 @@
         <v>490</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16850,10 +16850,10 @@
         <v>38</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>65</v>
@@ -17058,7 +17058,7 @@
         <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>64</v>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>29</v>
@@ -17164,10 +17164,10 @@
         <v>41</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>531</v>
+        <v>127</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>532</v>
+        <v>128</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17235,7 +17235,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>44</v>
@@ -17338,7 +17338,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>50</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>533</v>
@@ -17548,13 +17548,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>535</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17651,13 +17651,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>536</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17754,13 +17754,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>537</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17859,13 +17859,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>538</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17962,16 +17962,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E141" t="s" s="2">
         <v>38</v>
@@ -18067,13 +18067,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18170,13 +18170,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18273,13 +18273,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18319,7 +18319,7 @@
       </c>
       <c r="R144" s="2"/>
       <c r="S144" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>38</v>
@@ -18378,13 +18378,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18407,10 +18407,10 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>65</v>
@@ -18481,16 +18481,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E146" t="s" s="2">
         <v>38</v>
@@ -18586,13 +18586,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18689,13 +18689,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18792,13 +18792,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="R149" s="2"/>
       <c r="S149" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>38</v>
@@ -18897,13 +18897,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18926,10 +18926,10 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>65</v>
@@ -19000,7 +19000,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>57</v>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>38</v>
@@ -19105,7 +19105,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>62</v>
@@ -19134,7 +19134,7 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>64</v>
@@ -19628,7 +19628,7 @@
         <v>548</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19731,7 +19731,7 @@
         <v>549</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19834,7 +19834,7 @@
         <v>550</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19939,7 +19939,7 @@
         <v>551</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20149,7 +20149,7 @@
         <v>558</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20252,7 +20252,7 @@
         <v>559</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20355,7 +20355,7 @@
         <v>560</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20460,7 +20460,7 @@
         <v>561</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22696,7 +22696,7 @@
         <v>38</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M186" t="s" s="2">
         <v>64</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1562,55 +1562,49 @@
 All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
-    <t>hn-extension-first-and-last-available-free-slot</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot</t>
-  </si>
-  <si>
-    <t>HnExtensionFirstLastAvailableFreeSlot</t>
-  </si>
-  <si>
-    <t>Første og siste ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
+    <t>hn-extension-free-slot-planningHorizon</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon</t>
+  </si>
+  <si>
+    <t>HnExtensionFreeSlotPlanningHorizon</t>
   </si>
   <si>
     <t>element:Schedule</t>
   </si>
   <si>
-    <t>Extension.extension:firstStart</t>
-  </si>
-  <si>
-    <t>firstStart</t>
-  </si>
-  <si>
-    <t>Extension.extension:firstStart.id</t>
+    <t>Extension.extension:freePlanningHorizon</t>
+  </si>
+  <si>
+    <t>freePlanningHorizon</t>
+  </si>
+  <si>
+    <t>Extension.extension:freePlanningHorizon.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:firstStart.extension</t>
+    <t>Extension.extension:freePlanningHorizon.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:firstStart.url</t>
+    <t>Extension.extension:freePlanningHorizon.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t>Extension.extension:firstStart.value[x]</t>
+    <t>Extension.extension:freePlanningHorizon.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Start tidspunkt for første ledige slot i timebok.</t>
+    <t>Start tidspunkt for første ledige slot og slutt tidspunkt for siste ledige slot i timebok.</t>
   </si>
   <si>
     <t>Extension.extension:firstFreeSlot</t>
@@ -1638,27 +1632,6 @@
     <t>Referanse til første ledige slot i timebok.</t>
   </si>
   <si>
-    <t>Extension.extension:lastStart</t>
-  </si>
-  <si>
-    <t>lastStart</t>
-  </si>
-  <si>
-    <t>Extension.extension:lastStart.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:lastStart.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:lastStart.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:lastStart.value[x]</t>
-  </si>
-  <si>
-    <t>Start tidspunkt for siste ledige slot i timebok.</t>
-  </si>
-  <si>
     <t>Extension.extension:lastFreeSlot</t>
   </si>
   <si>
@@ -1682,36 +1655,6 @@
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>hn-extension-free-slot-planningHorizon</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon</t>
-  </si>
-  <si>
-    <t>HnExtensionFreeSlotPlanningHorizon</t>
-  </si>
-  <si>
-    <t>Extension.extension:freePlanningHorizon</t>
-  </si>
-  <si>
-    <t>freePlanningHorizon</t>
-  </si>
-  <si>
-    <t>Extension.extension:freePlanningHorizon.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:freePlanningHorizon.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:freePlanningHorizon.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:freePlanningHorizon.value[x]</t>
-  </si>
-  <si>
-    <t>Start og slut tispunkt for første ledige slot og siste ledige slot i timebok.</t>
   </si>
   <si>
     <t>hn-extension-representant</t>
@@ -2116,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2635,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
@@ -2681,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
@@ -2749,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83">
@@ -2765,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85">
@@ -2773,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86">
@@ -2789,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88">
@@ -2797,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>127</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89">
@@ -2843,7 +2786,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>128</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95">
@@ -2911,7 +2854,7 @@
         <v>36</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>495</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104">
@@ -2927,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106">
@@ -2935,315 +2878,153 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>541</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>7</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>542</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>543</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>304</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>304</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>19</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>544</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>610</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B124" t="s" s="2">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>545</v>
+      <c r="B125" t="s" s="2">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK191"/>
+  <dimension ref="A1:AK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3262,7 +3043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.65234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="49.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="22.76953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -14569,10 +14350,10 @@
         <v>41</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>493</v>
+        <v>127</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>494</v>
+        <v>128</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -14851,13 +14632,13 @@
         <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E111" t="s" s="2">
         <v>38</v>
@@ -14956,10 +14737,10 @@
         <v>490</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15059,10 +14840,10 @@
         <v>490</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15162,10 +14943,10 @@
         <v>490</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15205,7 +14986,7 @@
       </c>
       <c r="R114" s="2"/>
       <c r="S114" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>38</v>
@@ -15267,10 +15048,10 @@
         <v>490</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15293,10 +15074,10 @@
         <v>38</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>65</v>
@@ -15370,13 +15151,13 @@
         <v>490</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E116" t="s" s="2">
         <v>38</v>
@@ -15475,10 +15256,10 @@
         <v>490</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15578,10 +15359,10 @@
         <v>490</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15681,10 +15462,10 @@
         <v>490</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15724,7 +15505,7 @@
       </c>
       <c r="R119" s="2"/>
       <c r="S119" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>38</v>
@@ -15786,10 +15567,10 @@
         <v>490</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15812,10 +15593,10 @@
         <v>38</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>65</v>
@@ -15889,13 +15670,13 @@
         <v>490</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E121" t="s" s="2">
         <v>38</v>
@@ -15994,10 +15775,10 @@
         <v>490</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16097,10 +15878,10 @@
         <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16200,10 +15981,10 @@
         <v>490</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16243,7 +16024,7 @@
       </c>
       <c r="R124" s="2"/>
       <c r="S124" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>38</v>
@@ -16305,10 +16086,10 @@
         <v>490</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16331,10 +16112,10 @@
         <v>38</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>414</v>
+        <v>511</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>65</v>
@@ -16408,26 +16189,24 @@
         <v>490</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>522</v>
+        <v>57</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>38</v>
@@ -16436,22 +16215,24 @@
         <v>38</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R126" s="2"/>
       <c r="S126" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>38</v>
@@ -16493,19 +16274,19 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -16513,10 +16294,10 @@
         <v>490</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>524</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>499</v>
+        <v>62</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16527,7 +16308,7 @@
         <v>39</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>38</v>
@@ -16539,13 +16320,13 @@
         <v>38</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>46</v>
+        <v>520</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -16596,7 +16377,7 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
@@ -16605,21 +16386,21 @@
         <v>45</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>501</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16630,7 +16411,7 @@
         <v>39</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>38</v>
@@ -16642,13 +16423,13 @@
         <v>38</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>29</v>
+        <v>524</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>52</v>
+        <v>525</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -16687,19 +16468,19 @@
         <v>38</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD128" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE128" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
@@ -16716,13 +16497,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>503</v>
+        <v>44</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16730,7 +16511,7 @@
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>45</v>
@@ -16745,24 +16526,22 @@
         <v>38</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R129" s="2"/>
       <c r="S129" t="s" s="2">
-        <v>523</v>
+        <v>38</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>38</v>
@@ -16804,10 +16583,10 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>45</v>
@@ -16821,13 +16600,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>527</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>505</v>
+        <v>50</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16835,10 +16614,10 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>38</v>
@@ -16850,13 +16629,13 @@
         <v>38</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>513</v>
+        <v>51</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>528</v>
+        <v>29</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -16895,56 +16674,58 @@
         <v>38</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE130" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>57</v>
+        <v>527</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="E131" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>38</v>
@@ -16953,24 +16734,22 @@
         <v>38</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R131" s="2"/>
       <c r="S131" t="s" s="2">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>38</v>
@@ -17012,30 +16791,30 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>62</v>
+        <v>529</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17046,7 +16825,7 @@
         <v>39</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>38</v>
@@ -17058,13 +16837,13 @@
         <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>529</v>
+        <v>46</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -17115,7 +16894,7 @@
         <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
@@ -17124,21 +16903,21 @@
         <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="B133" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="C133" t="s" s="2">
-        <v>29</v>
+        <v>499</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17149,7 +16928,7 @@
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>38</v>
@@ -17161,13 +16940,13 @@
         <v>38</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17206,19 +16985,19 @@
         <v>38</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -17235,13 +17014,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>44</v>
+        <v>531</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17249,7 +17028,7 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>45</v>
@@ -17264,22 +17043,24 @@
         <v>38</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O134" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R134" s="2"/>
       <c r="S134" t="s" s="2">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>38</v>
@@ -17321,10 +17102,10 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>45</v>
@@ -17338,24 +17119,24 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>50</v>
+        <v>532</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>50</v>
+        <v>503</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>38</v>
@@ -17367,16 +17148,16 @@
         <v>38</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>51</v>
+        <v>533</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>120</v>
+        <v>534</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>122</v>
+        <v>536</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -17414,52 +17195,52 @@
         <v>38</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE135" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E136" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>45</v>
@@ -17548,13 +17329,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17651,13 +17432,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17754,13 +17535,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17800,7 +17581,7 @@
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>38</v>
@@ -17859,13 +17640,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17873,7 +17654,7 @@
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>45</v>
@@ -17888,10 +17669,10 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>539</v>
+        <v>64</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>65</v>
@@ -17962,17 +17743,15 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>38</v>
       </c>
@@ -17984,7 +17763,7 @@
         <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>38</v>
@@ -17993,13 +17772,13 @@
         <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -18050,41 +17829,41 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>38</v>
@@ -18096,15 +17875,17 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O142" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
         <v>38</v>
@@ -18141,42 +17922,42 @@
         <v>38</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE142" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18187,28 +17968,32 @@
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P143" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="Q143" t="s" s="2">
         <v>38</v>
       </c>
@@ -18232,54 +18017,54 @@
         <v>38</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18287,7 +18072,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>45</v>
@@ -18299,27 +18084,29 @@
         <v>38</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P144" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="P144" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="Q144" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R144" s="2"/>
       <c r="S144" t="s" s="2">
-        <v>508</v>
+        <v>38</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>38</v>
@@ -18337,13 +18124,13 @@
         <v>38</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
@@ -18361,30 +18148,30 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18407,13 +18194,13 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>513</v>
+        <v>46</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>514</v>
+        <v>47</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -18464,7 +18251,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -18473,37 +18260,35 @@
         <v>45</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>38</v>
@@ -18515,12 +18300,14 @@
         <v>51</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -18557,16 +18344,16 @@
         <v>38</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE146" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>56</v>
@@ -18586,13 +18373,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18600,7 +18387,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -18612,19 +18399,23 @@
         <v>38</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P147" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q147" t="s" s="2">
         <v>38</v>
       </c>
@@ -18648,13 +18439,11 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z147" s="2"/>
       <c r="AA147" t="s" s="2">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -18672,30 +18461,30 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18706,7 +18495,7 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -18718,13 +18507,13 @@
         <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -18763,53 +18552,53 @@
         <v>38</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>38</v>
@@ -18821,16 +18610,16 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
@@ -18838,7 +18627,7 @@
       </c>
       <c r="R149" s="2"/>
       <c r="S149" t="s" s="2">
-        <v>523</v>
+        <v>38</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>38</v>
@@ -18868,42 +18657,42 @@
         <v>38</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18911,7 +18700,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>45</v>
@@ -18923,19 +18712,23 @@
         <v>38</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>513</v>
+        <v>58</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P150" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
@@ -18983,7 +18776,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>62</v>
+        <v>568</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19000,13 +18793,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>57</v>
+        <v>570</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19014,7 +18807,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>45</v>
@@ -19026,19 +18819,19 @@
         <v>38</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>60</v>
+        <v>572</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
@@ -19046,7 +18839,7 @@
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>531</v>
+        <v>38</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>38</v>
@@ -19088,30 +18881,30 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>57</v>
+        <v>574</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>62</v>
+        <v>576</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19119,10 +18912,10 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>38</v>
@@ -19131,19 +18924,23 @@
         <v>38</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>64</v>
+        <v>577</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P152" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="Q152" t="s" s="2">
         <v>38</v>
       </c>
@@ -19191,7 +18988,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>62</v>
+        <v>580</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -19208,13 +19005,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>29</v>
+        <v>582</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19225,7 +19022,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19234,19 +19031,23 @@
         <v>38</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P153" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="Q153" t="s" s="2">
         <v>38</v>
       </c>
@@ -19294,30 +19095,30 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>44</v>
+        <v>587</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19337,19 +19138,23 @@
         <v>38</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>47</v>
+        <v>589</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="Q154" t="s" s="2">
         <v>38</v>
       </c>
@@ -19397,7 +19202,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>49</v>
+        <v>593</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -19406,21 +19211,21 @@
         <v>45</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>50</v>
+        <v>595</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19428,10 +19233,10 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -19440,19 +19245,23 @@
         <v>38</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P155" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
       </c>
@@ -19488,46 +19297,44 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19539,25 +19346,29 @@
         <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="J156" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L156" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19569,7 +19380,7 @@
         <v>38</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>38</v>
@@ -19605,30 +19416,30 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19636,7 +19447,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>45</v>
@@ -19648,18 +19459,20 @@
         <v>38</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O157" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>38</v>
@@ -19672,7 +19485,7 @@
         <v>38</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>38</v>
@@ -19708,7 +19521,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -19717,21 +19530,21 @@
         <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19742,7 +19555,7 @@
         <v>39</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -19751,18 +19564,20 @@
         <v>38</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O158" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
@@ -19799,42 +19614,42 @@
         <v>38</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19842,7 +19657,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>45</v>
@@ -19854,19 +19669,19 @@
         <v>38</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -19874,7 +19689,7 @@
       </c>
       <c r="R159" s="2"/>
       <c r="S159" t="s" s="2">
-        <v>547</v>
+        <v>38</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>38</v>
@@ -19916,30 +19731,30 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>505</v>
+        <v>57</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19947,7 +19762,7 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>45</v>
@@ -19962,16 +19777,16 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>552</v>
+        <v>58</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>553</v>
+        <v>59</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>554</v>
+        <v>60</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>555</v>
+        <v>61</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -19979,7 +19794,7 @@
       </c>
       <c r="R160" s="2"/>
       <c r="S160" t="s" s="2">
-        <v>38</v>
+        <v>522</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>38</v>
@@ -20021,46 +19836,44 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>556</v>
+        <v>62</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>38</v>
@@ -20069,13 +19882,13 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>51</v>
+        <v>520</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -20126,30 +19939,30 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>499</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20160,7 +19973,7 @@
         <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>38</v>
@@ -20172,13 +19985,13 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>47</v>
+        <v>609</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>48</v>
+        <v>610</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20229,30 +20042,30 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>559</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20263,7 +20076,7 @@
         <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20275,13 +20088,13 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -20320,42 +20133,42 @@
         <v>38</v>
       </c>
       <c r="AC163" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>560</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>503</v>
+        <v>50</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20363,10 +20176,10 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>38</v>
@@ -20378,24 +20191,22 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R164" s="2"/>
       <c r="S164" t="s" s="2">
-        <v>557</v>
+        <v>38</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>38</v>
@@ -20425,42 +20236,42 @@
         <v>38</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD164" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE164" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>561</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>505</v>
+        <v>57</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20483,22 +20294,24 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R165" s="2"/>
       <c r="S165" t="s" s="2">
-        <v>38</v>
+        <v>605</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>38</v>
@@ -20540,30 +20353,30 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>562</v>
+        <v>62</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>563</v>
+        <v>62</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20571,7 +20384,7 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>45</v>
@@ -20589,10 +20402,10 @@
         <v>46</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -20643,7 +20456,7 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>39</v>
@@ -20652,2636 +20465,9 @@
         <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R167" s="2"/>
-      <c r="S167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Q168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R168" s="2"/>
-      <c r="S168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F169" s="2"/>
-      <c r="G169" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P169" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Q169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R169" s="2"/>
-      <c r="S169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F170" s="2"/>
-      <c r="G170" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R170" s="2"/>
-      <c r="S170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R171" s="2"/>
-      <c r="S171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Q172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R172" s="2"/>
-      <c r="S172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z172" s="2"/>
-      <c r="AA172" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R173" s="2"/>
-      <c r="S173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="F174" s="2"/>
-      <c r="G174" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R174" s="2"/>
-      <c r="S174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="Q175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R175" s="2"/>
-      <c r="S175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F176" s="2"/>
-      <c r="G176" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R176" s="2"/>
-      <c r="S176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F177" s="2"/>
-      <c r="G177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="Q177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R177" s="2"/>
-      <c r="S177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F178" s="2"/>
-      <c r="G178" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="Q178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R178" s="2"/>
-      <c r="S178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C179" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F179" s="2"/>
-      <c r="G179" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="Q179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R179" s="2"/>
-      <c r="S179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F180" s="2"/>
-      <c r="G180" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Q180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R180" s="2"/>
-      <c r="S180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F181" s="2"/>
-      <c r="G181" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P181" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Q181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R181" s="2"/>
-      <c r="S181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C182" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F182" s="2"/>
-      <c r="G182" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R182" s="2"/>
-      <c r="S182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F183" s="2"/>
-      <c r="G183" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R183" s="2"/>
-      <c r="S183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C184" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F184" s="2"/>
-      <c r="G184" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R184" s="2"/>
-      <c r="S184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F185" s="2"/>
-      <c r="G185" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R185" s="2"/>
-      <c r="S185" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F186" s="2"/>
-      <c r="G186" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R186" s="2"/>
-      <c r="S186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F187" s="2"/>
-      <c r="G187" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R187" s="2"/>
-      <c r="S187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F188" s="2"/>
-      <c r="G188" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R188" s="2"/>
-      <c r="S188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F189" s="2"/>
-      <c r="G189" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R189" s="2"/>
-      <c r="S189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F190" s="2"/>
-      <c r="G190" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R190" s="2"/>
-      <c r="S190" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F191" s="2"/>
-      <c r="G191" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R191" s="2"/>
-      <c r="S191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK191" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1560,6 +1560,224 @@
     <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+  </si>
+  <si>
+    <t>hn-basis-slot</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-slot</t>
+  </si>
+  <si>
+    <t>HnBasisSlot</t>
+  </si>
+  <si>
+    <t>Profil for slot i Helsenorge. Basert på FHIR Slot (R4)</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Slot</t>
+  </si>
+  <si>
+    <t>A slot of time on a schedule that may be available for booking appointments</t>
+  </si>
+  <si>
+    <t>A slot of time on a schedule that may be available for booking appointments.</t>
+  </si>
+  <si>
+    <t>Slot.id</t>
+  </si>
+  <si>
+    <t>Slot.meta</t>
+  </si>
+  <si>
+    <t>Slot.implicitRules</t>
+  </si>
+  <si>
+    <t>Slot.language</t>
+  </si>
+  <si>
+    <t>Slot.text</t>
+  </si>
+  <si>
+    <t>Slot.contained</t>
+  </si>
+  <si>
+    <t>Slot.extension</t>
+  </si>
+  <si>
+    <t>Slot.modifierExtension</t>
+  </si>
+  <si>
+    <t>Slot.identifier</t>
+  </si>
+  <si>
+    <t>Slot.identifier.id</t>
+  </si>
+  <si>
+    <t>Slot.identifier.extension</t>
+  </si>
+  <si>
+    <t>Slot.identifier.use</t>
+  </si>
+  <si>
+    <t>Slot.identifier.type</t>
+  </si>
+  <si>
+    <t>Slot.identifier.system</t>
+  </si>
+  <si>
+    <t>Slot.identifier.value</t>
+  </si>
+  <si>
+    <t>Slot.identifier.period</t>
+  </si>
+  <si>
+    <t>Slot.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.text</t>
+  </si>
+  <si>
+    <t>Slot.specialty</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
+  </si>
+  <si>
+    <t>Slot.specialty.id</t>
+  </si>
+  <si>
+    <t>Slot.specialty.extension</t>
+  </si>
+  <si>
+    <t>Slot.specialty.coding</t>
+  </si>
+  <si>
+    <t>Slot.specialty.text</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that may be booked in the slot (not service type)</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
+  </si>
+  <si>
+    <t>Slot.schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Schedule)
+</t>
+  </si>
+  <si>
+    <t>The schedule resource that this slot defines an interval of status information</t>
+  </si>
+  <si>
+    <t>The schedule resource that this slot defines an interval of status information.</t>
+  </si>
+  <si>
+    <t>Slot.status</t>
+  </si>
+  <si>
+    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error</t>
+  </si>
+  <si>
+    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
+  </si>
+  <si>
+    <t>The free/busy status of the slot.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/slotstatus|4.0.1</t>
+  </si>
+  <si>
+    <t>Slot.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time that the slot is to begin</t>
+  </si>
+  <si>
+    <t>Date/Time that the slot is to begin.</t>
+  </si>
+  <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
+    <t>Slot.end</t>
+  </si>
+  <si>
+    <t>Date/Time that the slot is to conclude</t>
+  </si>
+  <si>
+    <t>Date/Time that the slot is to conclude.</t>
+  </si>
+  <si>
+    <t>Slot.overbooked</t>
+  </si>
+  <si>
+    <t>This slot has already been overbooked, appointments are unlikely to be accepted for this time</t>
+  </si>
+  <si>
+    <t>This slot has already been overbooked, appointments are unlikely to be accepted for this time.</t>
+  </si>
+  <si>
+    <t>If overbooked is missing, systems may assume that there are still appointments available</t>
+  </si>
+  <si>
+    <t>Slot.comment</t>
+  </si>
+  <si>
+    <t>Comments on the slot to describe any extended information. Such as custom constraints on the slot</t>
+  </si>
+  <si>
+    <t>Comments on the slot to describe any extended information. Such as custom constraints on the slot.</t>
   </si>
   <si>
     <t>hn-extension-free-slot-planningHorizon</t>
@@ -2059,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2578,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>127</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68">
@@ -2586,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>304</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -2607,9 +2825,7 @@
       <c r="A71" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B71" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="B71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
@@ -2624,7 +2840,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>128</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74">
@@ -2652,7 +2868,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
@@ -2660,7 +2876,7 @@
         <v>28</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>29</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79">
@@ -2668,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>31</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80">
@@ -2688,343 +2904,497 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>493</v>
+      <c r="A82" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s" s="1">
-        <v>1</v>
+      <c r="A83" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>562</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>521</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>522</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>7</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>524</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>245</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>35</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>526</v>
+      <c r="A103" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s" s="1">
-        <v>1</v>
+      <c r="A104" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>593</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>605</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>7</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>245</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>245</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>33</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>35</v>
+      <c r="A124" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>526</v>
+      <c r="B145" t="s" s="2">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +3404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK166"/>
+  <dimension ref="A1:AK206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14321,10 +14691,10 @@
         <v>490</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>29</v>
+        <v>494</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>29</v>
+        <v>494</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14350,10 +14720,10 @@
         <v>41</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>127</v>
+        <v>496</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>128</v>
+        <v>497</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -14404,7 +14774,7 @@
         <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>29</v>
+        <v>494</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -14413,10 +14783,10 @@
         <v>40</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
@@ -14424,10 +14794,10 @@
         <v>490</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>44</v>
+        <v>498</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>44</v>
+        <v>498</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14447,18 +14817,20 @@
         <v>38</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>38</v>
@@ -14507,7 +14879,7 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -14527,21 +14899,21 @@
         <v>490</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>38</v>
@@ -14550,20 +14922,18 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
         <v>38</v>
@@ -14600,31 +14970,31 @@
         <v>38</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111">
@@ -14632,14 +15002,12 @@
         <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>38</v>
       </c>
@@ -14651,24 +15019,26 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J111" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="J111" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K111" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
         <v>38</v>
@@ -14717,19 +15087,19 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112">
@@ -14737,10 +15107,10 @@
         <v>490</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14763,15 +15133,17 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -14796,13 +15168,13 @@
         <v>38</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>38</v>
@@ -14820,7 +15192,7 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
@@ -14829,10 +15201,10 @@
         <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113">
@@ -14840,21 +15212,21 @@
         <v>490</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>38</v>
@@ -14866,15 +15238,17 @@
         <v>38</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
         <v>38</v>
@@ -14911,31 +15285,31 @@
         <v>38</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
@@ -14943,21 +15317,21 @@
         <v>490</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>38</v>
@@ -14969,16 +15343,16 @@
         <v>38</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14986,7 +15360,7 @@
       </c>
       <c r="R114" s="2"/>
       <c r="S114" t="s" s="2">
-        <v>495</v>
+        <v>38</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>38</v>
@@ -15028,13 +15402,13 @@
         <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>38</v>
@@ -15048,21 +15422,21 @@
         <v>490</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>38</v>
@@ -15074,15 +15448,17 @@
         <v>38</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>504</v>
+        <v>120</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>38</v>
@@ -15119,31 +15495,31 @@
         <v>38</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE115" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
@@ -15154,26 +15530,24 @@
         <v>505</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J116" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>38</v>
@@ -15182,13 +15556,17 @@
         <v>51</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Q116" t="s" s="2">
         <v>38</v>
       </c>
@@ -15224,19 +15602,19 @@
         <v>38</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
@@ -15256,10 +15634,10 @@
         <v>490</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15267,7 +15645,7 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>45</v>
@@ -15279,16 +15657,16 @@
         <v>38</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -15339,19 +15717,19 @@
         <v>38</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>49</v>
+        <v>506</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118">
@@ -15359,10 +15737,10 @@
         <v>490</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15373,7 +15751,7 @@
         <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>38</v>
@@ -15385,13 +15763,13 @@
         <v>38</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -15430,31 +15808,31 @@
         <v>38</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE118" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -15462,21 +15840,21 @@
         <v>490</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>38</v>
@@ -15488,16 +15866,16 @@
         <v>38</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
@@ -15505,7 +15883,7 @@
       </c>
       <c r="R119" s="2"/>
       <c r="S119" t="s" s="2">
-        <v>506</v>
+        <v>38</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>38</v>
@@ -15535,31 +15913,31 @@
         <v>38</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120">
@@ -15567,10 +15945,10 @@
         <v>490</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15587,22 +15965,26 @@
         <v>38</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>511</v>
+        <v>96</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>512</v>
+        <v>141</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="Q120" t="s" s="2">
         <v>38</v>
       </c>
@@ -15626,13 +16008,13 @@
         <v>38</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AB120" t="s" s="2">
         <v>38</v>
@@ -15650,7 +16032,7 @@
         <v>38</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>39</v>
@@ -15670,14 +16052,12 @@
         <v>490</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>38</v>
       </c>
@@ -15689,25 +16069,29 @@
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="J121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L121" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="Q121" t="s" s="2">
         <v>38</v>
       </c>
@@ -15731,13 +16115,13 @@
         <v>38</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AB121" t="s" s="2">
         <v>38</v>
@@ -15755,19 +16139,19 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122">
@@ -15775,10 +16159,10 @@
         <v>490</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15786,7 +16170,7 @@
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>45</v>
@@ -15798,19 +16182,23 @@
         <v>38</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q122" t="s" s="2">
         <v>38</v>
       </c>
@@ -15822,7 +16210,7 @@
         <v>38</v>
       </c>
       <c r="U122" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="V122" t="s" s="2">
         <v>38</v>
@@ -15858,7 +16246,7 @@
         <v>38</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
@@ -15867,10 +16255,10 @@
         <v>45</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123">
@@ -15878,10 +16266,10 @@
         <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15889,10 +16277,10 @@
       </c>
       <c r="F123" s="2"/>
       <c r="G123" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>38</v>
@@ -15901,18 +16289,20 @@
         <v>38</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
         <v>38</v>
@@ -15925,7 +16315,7 @@
         <v>38</v>
       </c>
       <c r="U123" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="V123" t="s" s="2">
         <v>38</v>
@@ -15949,31 +16339,31 @@
         <v>38</v>
       </c>
       <c r="AC123" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE123" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124">
@@ -15981,10 +16371,10 @@
         <v>490</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15992,7 +16382,7 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>45</v>
@@ -16004,19 +16394,19 @@
         <v>38</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -16024,7 +16414,7 @@
       </c>
       <c r="R124" s="2"/>
       <c r="S124" t="s" s="2">
-        <v>514</v>
+        <v>38</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>38</v>
@@ -16066,19 +16456,19 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
@@ -16086,10 +16476,10 @@
         <v>490</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16109,18 +16499,20 @@
         <v>38</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>511</v>
+        <v>179</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>519</v>
+        <v>180</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>38</v>
@@ -16169,7 +16561,7 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
@@ -16181,7 +16573,7 @@
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>66</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126">
@@ -16189,10 +16581,10 @@
         <v>490</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>57</v>
+        <v>515</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>57</v>
+        <v>515</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16212,19 +16604,19 @@
         <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>59</v>
+        <v>516</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -16232,7 +16624,7 @@
       </c>
       <c r="R126" s="2"/>
       <c r="S126" t="s" s="2">
-        <v>491</v>
+        <v>38</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>38</v>
@@ -16250,13 +16642,11 @@
         <v>38</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z126" s="2"/>
       <c r="AA126" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>38</v>
@@ -16274,19 +16664,19 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>57</v>
+        <v>515</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127">
@@ -16294,10 +16684,10 @@
         <v>490</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>62</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>62</v>
+        <v>517</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16308,7 +16698,7 @@
         <v>39</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>38</v>
@@ -16320,13 +16710,13 @@
         <v>38</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -16377,7 +16767,7 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
@@ -16386,25 +16776,25 @@
         <v>45</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
@@ -16423,15 +16813,17 @@
         <v>38</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>524</v>
+        <v>120</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
         <v>38</v>
@@ -16468,19 +16860,19 @@
         <v>38</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD128" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE128" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
@@ -16497,13 +16889,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>44</v>
+        <v>519</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>44</v>
+        <v>519</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16514,7 +16906,7 @@
         <v>39</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>38</v>
@@ -16523,19 +16915,23 @@
         <v>38</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q129" t="s" s="2">
         <v>38</v>
       </c>
@@ -16583,30 +16979,30 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16614,10 +17010,10 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>38</v>
@@ -16626,19 +17022,23 @@
         <v>38</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q130" t="s" s="2">
         <v>38</v>
       </c>
@@ -16674,46 +17074,44 @@
         <v>38</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE130" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="B131" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="C131" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>38</v>
       </c>
@@ -16722,27 +17120,29 @@
         <v>39</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="J131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L131" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
@@ -16767,13 +17167,11 @@
         <v>38</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="Z131" s="2"/>
       <c r="AA131" t="s" s="2">
-        <v>38</v>
+        <v>524</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>38</v>
@@ -16791,7 +17189,7 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
@@ -16803,18 +17201,18 @@
         <v>42</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16911,24 +17309,24 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>38</v>
@@ -16943,12 +17341,14 @@
         <v>51</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>38</v>
@@ -17014,13 +17414,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17028,10 +17428,10 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>38</v>
@@ -17040,27 +17440,29 @@
         <v>38</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P134" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q134" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R134" s="2"/>
       <c r="S134" t="s" s="2">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>38</v>
@@ -17102,30 +17504,30 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17145,21 +17547,23 @@
         <v>38</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>533</v>
+        <v>46</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>535</v>
+        <v>209</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="P135" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="P135" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q135" t="s" s="2">
         <v>38</v>
       </c>
@@ -17207,7 +17611,7 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
@@ -17224,46 +17628,46 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I136" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="J136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L136" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>29</v>
+        <v>530</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O136" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
         <v>38</v>
@@ -17288,13 +17692,13 @@
         <v>38</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="AB136" t="s" s="2">
         <v>38</v>
@@ -17312,7 +17716,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>56</v>
+        <v>529</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -17324,18 +17728,18 @@
         <v>42</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17432,24 +17836,24 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>38</v>
@@ -17464,12 +17868,14 @@
         <v>51</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -17535,13 +17941,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17549,10 +17955,10 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>38</v>
@@ -17561,27 +17967,29 @@
         <v>38</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P139" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
-        <v>538</v>
+        <v>38</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>38</v>
@@ -17623,30 +18031,30 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17654,7 +18062,7 @@
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>45</v>
@@ -17666,19 +18074,23 @@
         <v>38</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P140" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
       </c>
@@ -17726,7 +18138,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -17743,13 +18155,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17769,18 +18181,20 @@
         <v>38</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>47</v>
+        <v>536</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -17805,13 +18219,11 @@
         <v>38</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>38</v>
@@ -17829,7 +18241,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>49</v>
+        <v>535</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -17838,32 +18250,32 @@
         <v>45</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>38</v>
@@ -17872,19 +18284,19 @@
         <v>38</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
@@ -17922,42 +18334,42 @@
         <v>38</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE142" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>56</v>
+        <v>538</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17965,7 +18377,7 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>45</v>
@@ -17974,7 +18386,7 @@
         <v>38</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>79</v>
@@ -17983,17 +18395,15 @@
         <v>96</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>141</v>
+        <v>543</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>142</v>
+        <v>544</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P143" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>38</v>
       </c>
@@ -18020,10 +18430,10 @@
         <v>145</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>146</v>
+        <v>545</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>147</v>
+        <v>546</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
@@ -18041,10 +18451,10 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>148</v>
+        <v>542</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>45</v>
@@ -18058,13 +18468,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18072,7 +18482,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>45</v>
@@ -18087,20 +18497,18 @@
         <v>79</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>63</v>
+        <v>548</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>150</v>
+        <v>549</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>151</v>
+        <v>550</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P144" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>38</v>
       </c>
@@ -18124,13 +18532,13 @@
         <v>38</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
@@ -18148,10 +18556,10 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>157</v>
+        <v>547</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>45</v>
@@ -18165,10 +18573,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>552</v>
@@ -18179,7 +18587,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>45</v>
@@ -18191,18 +18599,20 @@
         <v>38</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>46</v>
+        <v>548</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>47</v>
+        <v>553</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -18251,41 +18661,41 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>49</v>
+        <v>552</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>38</v>
@@ -18297,22 +18707,22 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>120</v>
+        <v>556</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="S146" t="s" s="2">
         <v>38</v>
       </c>
@@ -18344,42 +18754,42 @@
         <v>38</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE146" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>56</v>
+        <v>555</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18387,7 +18797,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -18399,23 +18809,21 @@
         <v>38</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>201</v>
+        <v>560</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>202</v>
+        <v>561</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
       </c>
@@ -18439,11 +18847,13 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z147" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA147" t="s" s="2">
-        <v>557</v>
+        <v>38</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -18461,13 +18871,13 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>205</v>
+        <v>559</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18478,13 +18888,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18495,7 +18905,7 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -18507,13 +18917,13 @@
         <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -18564,41 +18974,41 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>561</v>
+        <v>44</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>38</v>
@@ -18610,17 +19020,15 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -18657,53 +19065,53 @@
         <v>38</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>562</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>563</v>
+        <v>50</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
@@ -18712,23 +19120,21 @@
         <v>38</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>564</v>
+        <v>120</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>565</v>
+        <v>139</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
@@ -18764,44 +19170,46 @@
         <v>38</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>568</v>
+        <v>56</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="E151" t="s" s="2">
         <v>38</v>
       </c>
@@ -18813,26 +19221,24 @@
         <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>571</v>
+        <v>29</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -18881,30 +19287,30 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>574</v>
+        <v>56</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18912,7 +19318,7 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>45</v>
@@ -18924,23 +19330,19 @@
         <v>38</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>577</v>
+        <v>47</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P152" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>38</v>
       </c>
@@ -18988,7 +19390,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>580</v>
+        <v>49</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -18997,21 +19399,21 @@
         <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19022,7 +19424,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19031,23 +19433,19 @@
         <v>38</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>583</v>
+        <v>29</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P153" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>38</v>
       </c>
@@ -19083,42 +19481,42 @@
         <v>38</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>586</v>
+        <v>56</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19126,7 +19524,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>45</v>
@@ -19138,29 +19536,27 @@
         <v>38</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>589</v>
+        <v>59</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R154" s="2"/>
       <c r="S154" t="s" s="2">
-        <v>38</v>
+        <v>567</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>38</v>
@@ -19202,30 +19598,30 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19245,23 +19641,19 @@
         <v>38</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>208</v>
+        <v>576</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P155" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
         <v>38</v>
       </c>
@@ -19309,7 +19701,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -19326,15 +19718,17 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="E156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19346,29 +19740,25 @@
         <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19380,7 +19770,7 @@
         <v>38</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>38</v>
@@ -19416,30 +19806,30 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19447,7 +19837,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>45</v>
@@ -19459,20 +19849,18 @@
         <v>38</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
         <v>38</v>
@@ -19485,7 +19873,7 @@
         <v>38</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>38</v>
@@ -19521,7 +19909,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -19530,21 +19918,21 @@
         <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19555,7 +19943,7 @@
         <v>39</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -19564,20 +19952,18 @@
         <v>38</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
@@ -19614,42 +20000,42 @@
         <v>38</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19657,7 +20043,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>45</v>
@@ -19669,19 +20055,19 @@
         <v>38</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -19689,7 +20075,7 @@
       </c>
       <c r="R159" s="2"/>
       <c r="S159" t="s" s="2">
-        <v>38</v>
+        <v>578</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>38</v>
@@ -19731,30 +20117,30 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>57</v>
+        <v>582</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>57</v>
+        <v>575</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19762,7 +20148,7 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>45</v>
@@ -19777,24 +20163,22 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>58</v>
+        <v>583</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>59</v>
+        <v>584</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R160" s="2"/>
       <c r="S160" t="s" s="2">
-        <v>522</v>
+        <v>38</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>38</v>
@@ -19836,32 +20220,34 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>62</v>
+        <v>585</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="E161" t="s" s="2">
         <v>38</v>
       </c>
@@ -19870,10 +20256,10 @@
         <v>39</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>38</v>
@@ -19882,13 +20268,13 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>520</v>
+        <v>51</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -19939,30 +20325,30 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>29</v>
+        <v>587</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -19973,7 +20359,7 @@
         <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>38</v>
@@ -19985,13 +20371,13 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>609</v>
+        <v>47</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>610</v>
+        <v>48</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20042,30 +20428,30 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20076,7 +20462,7 @@
         <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20088,13 +20474,13 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -20133,42 +20519,42 @@
         <v>38</v>
       </c>
       <c r="AC163" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>50</v>
+        <v>589</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20176,10 +20562,10 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>38</v>
@@ -20191,22 +20577,24 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R164" s="2"/>
       <c r="S164" t="s" s="2">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>38</v>
@@ -20236,42 +20624,42 @@
         <v>38</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD164" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE164" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>57</v>
+        <v>590</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>57</v>
+        <v>575</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20279,7 +20667,7 @@
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>45</v>
@@ -20294,24 +20682,22 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>58</v>
+        <v>583</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R165" s="2"/>
       <c r="S165" t="s" s="2">
-        <v>605</v>
+        <v>38</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>38</v>
@@ -20353,30 +20739,30 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20399,22 +20785,24 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O166" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R166" s="2"/>
       <c r="S166" t="s" s="2">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>38</v>
@@ -20456,18 +20844,4200 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AH166" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
+      <c r="C167" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R167" s="2"/>
+      <c r="S167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AK166" t="s" s="2">
+      <c r="AK167" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R168" s="2"/>
+      <c r="S168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R178" s="2"/>
+      <c r="S178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P179" s="2"/>
+      <c r="Q179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R179" s="2"/>
+      <c r="S179" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R180" s="2"/>
+      <c r="S180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R181" s="2"/>
+      <c r="S181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R182" s="2"/>
+      <c r="S182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P183" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Q183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R183" s="2"/>
+      <c r="S183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Q184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R184" s="2"/>
+      <c r="S184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R186" s="2"/>
+      <c r="S186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P187" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Q187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R187" s="2"/>
+      <c r="S187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z187" s="2"/>
+      <c r="AA187" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R188" s="2"/>
+      <c r="S188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P190" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Q190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R190" s="2"/>
+      <c r="S190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O191" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R191" s="2"/>
+      <c r="S191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P192" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Q192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R192" s="2"/>
+      <c r="S192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P193" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Q193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R193" s="2"/>
+      <c r="S193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P194" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Q194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R194" s="2"/>
+      <c r="S194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P195" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Q195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R195" s="2"/>
+      <c r="S195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P196" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R196" s="2"/>
+      <c r="S196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O197" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R197" s="2"/>
+      <c r="S197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R198" s="2"/>
+      <c r="S198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R199" s="2"/>
+      <c r="S199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R200" s="2"/>
+      <c r="S200" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R201" s="2"/>
+      <c r="S201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R202" s="2"/>
+      <c r="S202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R203" s="2"/>
+      <c r="S203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R204" s="2"/>
+      <c r="S204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R205" s="2"/>
+      <c r="S205" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R206" s="2"/>
+      <c r="S206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK206" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7177" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1706,10 +1706,22 @@
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
   </si>
   <si>
+    <t>Slot.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.coding</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.text</t>
+  </si>
+  <si>
     <t>Slot.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Schedule)
+    <t xml:space="preserve">Reference(Schedule|http://helsenorge.no/fhir/StructureDefinition/hn-basis-schedule)
 </t>
   </si>
   <si>
@@ -1843,7 +1855,7 @@
     <t>Extension.extension:firstFreeSlot.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|http://helsenorge.no/fhir/StructureDefinition/hn-basis-slot)
 </t>
   </si>
   <si>
@@ -2916,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84">
@@ -2924,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85">
@@ -2940,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87">
@@ -3062,7 +3074,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103">
@@ -3078,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105">
@@ -3086,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="106">
@@ -3102,7 +3114,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108">
@@ -3110,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109">
@@ -3156,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115">
@@ -3224,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124">
@@ -3240,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="126">
@@ -3248,15 +3260,15 @@
         <v>4</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128">
@@ -3272,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="130">
@@ -3280,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="131">
@@ -3326,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137">
@@ -3394,7 +3406,7 @@
         <v>36</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK206"/>
+  <dimension ref="A1:AK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18272,7 +18284,7 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>45</v>
@@ -18284,20 +18296,18 @@
         <v>38</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>539</v>
+        <v>46</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>540</v>
+        <v>47</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
         <v>38</v>
@@ -18346,19 +18356,19 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>538</v>
+        <v>49</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
@@ -18366,21 +18376,21 @@
         <v>490</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
@@ -18389,19 +18399,19 @@
         <v>38</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>543</v>
+        <v>120</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>544</v>
+        <v>139</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -18427,43 +18437,43 @@
         <v>38</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>546</v>
+        <v>38</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>542</v>
+        <v>56</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
@@ -18471,10 +18481,10 @@
         <v>490</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18482,10 +18492,10 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -18497,18 +18507,20 @@
         <v>79</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>548</v>
+        <v>200</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>549</v>
+        <v>201</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>550</v>
+        <v>202</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="P144" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="P144" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q144" t="s" s="2">
         <v>38</v>
       </c>
@@ -18556,19 +18568,19 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>547</v>
+        <v>205</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>66</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145">
@@ -18576,10 +18588,10 @@
         <v>490</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18587,7 +18599,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>45</v>
@@ -18602,18 +18614,20 @@
         <v>79</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>548</v>
+        <v>46</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>553</v>
+        <v>208</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>554</v>
+        <v>209</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="P145" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="P145" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q145" t="s" s="2">
         <v>38</v>
       </c>
@@ -18661,10 +18675,10 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>552</v>
+        <v>212</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>45</v>
@@ -18681,10 +18695,10 @@
         <v>490</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18692,7 +18706,7 @@
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>45</v>
@@ -18704,25 +18718,25 @@
         <v>38</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>186</v>
+        <v>543</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R146" t="s" s="2">
-        <v>558</v>
-      </c>
+      <c r="R146" s="2"/>
       <c r="S146" t="s" s="2">
         <v>38</v>
       </c>
@@ -18766,10 +18780,10 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>45</v>
@@ -18778,7 +18792,7 @@
         <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>66</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147">
@@ -18786,10 +18800,10 @@
         <v>490</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18797,7 +18811,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -18809,16 +18823,16 @@
         <v>38</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>241</v>
@@ -18847,13 +18861,13 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>38</v>
+        <v>549</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>38</v>
+        <v>550</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -18871,10 +18885,10 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>45</v>
@@ -18888,13 +18902,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18902,10 +18916,10 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -18914,18 +18928,20 @@
         <v>38</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>41</v>
+        <v>552</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>127</v>
+        <v>553</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>38</v>
@@ -18974,30 +18990,30 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>44</v>
+        <v>556</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>44</v>
+        <v>556</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19005,7 +19021,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>45</v>
@@ -19017,18 +19033,20 @@
         <v>38</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>46</v>
+        <v>552</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>47</v>
+        <v>557</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O149" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -19077,41 +19095,41 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>49</v>
+        <v>556</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
@@ -19123,22 +19141,22 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>120</v>
+        <v>560</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="S150" t="s" s="2">
         <v>38</v>
       </c>
@@ -19170,46 +19188,44 @@
         <v>38</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>56</v>
+        <v>559</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>38</v>
       </c>
@@ -19221,7 +19237,7 @@
         <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>38</v>
@@ -19230,15 +19246,17 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>29</v>
+        <v>564</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -19287,30 +19305,30 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>568</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>569</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19321,7 +19339,7 @@
         <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>38</v>
@@ -19333,13 +19351,13 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -19390,30 +19408,30 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>570</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19424,7 +19442,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19436,13 +19454,13 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19481,53 +19499,53 @@
         <v>38</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>572</v>
+        <v>50</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>573</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>38</v>
@@ -19539,16 +19557,16 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -19556,7 +19574,7 @@
       </c>
       <c r="R154" s="2"/>
       <c r="S154" t="s" s="2">
-        <v>567</v>
+        <v>38</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>38</v>
@@ -19586,44 +19604,46 @@
         <v>38</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="E155" t="s" s="2">
         <v>38</v>
       </c>
@@ -19635,7 +19655,7 @@
         <v>45</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>38</v>
@@ -19644,13 +19664,13 @@
         <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>576</v>
+        <v>29</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -19701,34 +19721,32 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>38</v>
       </c>
@@ -19740,7 +19758,7 @@
         <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>38</v>
@@ -19749,13 +19767,13 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -19806,30 +19824,30 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19840,7 +19858,7 @@
         <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>38</v>
@@ -19852,13 +19870,13 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -19897,42 +19915,42 @@
         <v>38</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19940,10 +19958,10 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -19955,22 +19973,24 @@
         <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O158" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R158" s="2"/>
       <c r="S158" t="s" s="2">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>38</v>
@@ -20000,42 +20020,42 @@
         <v>38</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20043,7 +20063,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>45</v>
@@ -20058,24 +20078,22 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>59</v>
+        <v>580</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R159" s="2"/>
       <c r="S159" t="s" s="2">
-        <v>578</v>
+        <v>38</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>38</v>
@@ -20117,32 +20135,34 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D160" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>38</v>
       </c>
@@ -20154,7 +20174,7 @@
         <v>45</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>38</v>
@@ -20163,13 +20183,13 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>583</v>
+        <v>51</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>584</v>
+        <v>29</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20220,34 +20240,32 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>38</v>
       </c>
@@ -20259,7 +20277,7 @@
         <v>45</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>38</v>
@@ -20268,13 +20286,13 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -20325,30 +20343,30 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20359,7 +20377,7 @@
         <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>38</v>
@@ -20371,13 +20389,13 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20416,42 +20434,42 @@
         <v>38</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD162" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE162" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20459,10 +20477,10 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20474,22 +20492,24 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O163" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R163" s="2"/>
       <c r="S163" t="s" s="2">
-        <v>38</v>
+        <v>582</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>38</v>
@@ -20519,42 +20539,42 @@
         <v>38</v>
       </c>
       <c r="AC163" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20562,7 +20582,7 @@
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>45</v>
@@ -20577,24 +20597,22 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>58</v>
+        <v>587</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>59</v>
+        <v>588</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R164" s="2"/>
       <c r="S164" t="s" s="2">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>38</v>
@@ -20636,32 +20654,34 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D165" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>38</v>
       </c>
@@ -20673,7 +20693,7 @@
         <v>45</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>38</v>
@@ -20682,13 +20702,13 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>583</v>
+        <v>51</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>591</v>
+        <v>29</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -20739,30 +20759,30 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>57</v>
+        <v>591</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>57</v>
+        <v>573</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20770,7 +20790,7 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>45</v>
@@ -20785,24 +20805,22 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R166" s="2"/>
       <c r="S166" t="s" s="2">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>38</v>
@@ -20844,10 +20862,10 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>45</v>
@@ -20861,13 +20879,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>62</v>
+        <v>592</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20890,13 +20908,13 @@
         <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>592</v>
+        <v>51</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -20935,42 +20953,42 @@
         <v>38</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="B168" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="C168" t="s" s="2">
-        <v>29</v>
+        <v>577</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20978,10 +20996,10 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>38</v>
@@ -20993,22 +21011,24 @@
         <v>38</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>596</v>
+        <v>59</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O168" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R168" s="2"/>
       <c r="S168" t="s" s="2">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>38</v>
@@ -21050,30 +21070,30 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>44</v>
+        <v>594</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21096,13 +21116,13 @@
         <v>38</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>46</v>
+        <v>587</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>47</v>
+        <v>595</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -21153,7 +21173,7 @@
         <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
@@ -21162,21 +21182,21 @@
         <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21187,7 +21207,7 @@
         <v>45</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -21199,22 +21219,24 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R170" s="2"/>
       <c r="S170" t="s" s="2">
-        <v>38</v>
+        <v>567</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>38</v>
@@ -21244,46 +21266,44 @@
         <v>38</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>599</v>
+        <v>62</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>38</v>
       </c>
@@ -21292,10 +21312,10 @@
         <v>39</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J171" t="s" s="2">
         <v>38</v>
@@ -21304,13 +21324,13 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>51</v>
+        <v>596</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -21361,30 +21381,30 @@
         <v>38</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>601</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>569</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21395,7 +21415,7 @@
         <v>39</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>38</v>
@@ -21407,13 +21427,13 @@
         <v>38</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>47</v>
+        <v>600</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>48</v>
+        <v>601</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -21464,30 +21484,30 @@
         <v>38</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21498,7 +21518,7 @@
         <v>39</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>38</v>
@@ -21510,13 +21530,13 @@
         <v>38</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -21555,42 +21575,42 @@
         <v>38</v>
       </c>
       <c r="AC173" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD173" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE173" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>603</v>
+        <v>50</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>573</v>
+        <v>50</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21601,7 +21621,7 @@
         <v>45</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>38</v>
@@ -21613,24 +21633,22 @@
         <v>38</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R174" s="2"/>
       <c r="S174" t="s" s="2">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>38</v>
@@ -21660,44 +21678,46 @@
         <v>38</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D175" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
         <v>38</v>
       </c>
@@ -21709,7 +21729,7 @@
         <v>45</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J175" t="s" s="2">
         <v>38</v>
@@ -21718,17 +21738,15 @@
         <v>38</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>605</v>
+        <v>51</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>606</v>
+        <v>29</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" t="s" s="2">
         <v>38</v>
@@ -21777,46 +21795,44 @@
         <v>38</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>38</v>
@@ -21825,13 +21841,13 @@
         <v>38</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -21882,30 +21898,30 @@
         <v>38</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -21916,7 +21932,7 @@
         <v>39</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>38</v>
@@ -21928,13 +21944,13 @@
         <v>38</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -21973,42 +21989,42 @@
         <v>38</v>
       </c>
       <c r="AC177" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE177" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -22016,10 +22032,10 @@
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>38</v>
@@ -22031,22 +22047,24 @@
         <v>38</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O178" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R178" s="2"/>
       <c r="S178" t="s" s="2">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>38</v>
@@ -22076,42 +22094,42 @@
         <v>38</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE178" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH178" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22119,7 +22137,7 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>45</v>
@@ -22134,16 +22152,16 @@
         <v>38</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>58</v>
+        <v>609</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>59</v>
+        <v>610</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>60</v>
+        <v>611</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>61</v>
+        <v>612</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
@@ -22151,7 +22169,7 @@
       </c>
       <c r="R179" s="2"/>
       <c r="S179" t="s" s="2">
-        <v>610</v>
+        <v>38</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>38</v>
@@ -22193,32 +22211,34 @@
         <v>38</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B180" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D180" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
         <v>38</v>
       </c>
@@ -22230,7 +22250,7 @@
         <v>45</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J180" t="s" s="2">
         <v>38</v>
@@ -22239,13 +22259,13 @@
         <v>38</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -22296,30 +22316,30 @@
         <v>38</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>615</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22416,24 +22436,24 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>38</v>
@@ -22448,14 +22468,12 @@
         <v>51</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
         <v>38</v>
@@ -22521,13 +22539,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22535,7 +22553,7 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>45</v>
@@ -22544,32 +22562,30 @@
         <v>38</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P183" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R183" s="2"/>
       <c r="S183" t="s" s="2">
-        <v>38</v>
+        <v>614</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>38</v>
@@ -22587,13 +22603,13 @@
         <v>38</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>38</v>
@@ -22611,30 +22627,30 @@
         <v>38</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI183" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22642,7 +22658,7 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>45</v>
@@ -22654,23 +22670,19 @@
         <v>38</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P184" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>38</v>
       </c>
@@ -22694,13 +22706,13 @@
         <v>38</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA184" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AB184" t="s" s="2">
         <v>38</v>
@@ -22718,7 +22730,7 @@
         <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>39</v>
@@ -22735,13 +22747,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22838,13 +22850,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22943,13 +22955,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -22957,7 +22969,7 @@
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>45</v>
@@ -22966,25 +22978,25 @@
         <v>38</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="P187" t="s" s="2">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="Q187" t="s" s="2">
         <v>38</v>
@@ -23011,9 +23023,11 @@
       <c r="Y187" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z187" s="2"/>
+      <c r="Z187" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="AA187" t="s" s="2">
-        <v>629</v>
+        <v>147</v>
       </c>
       <c r="AB187" t="s" s="2">
         <v>38</v>
@@ -23031,13 +23045,13 @@
         <v>38</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>42</v>
@@ -23048,13 +23062,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23074,19 +23088,23 @@
         <v>38</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="Q188" t="s" s="2">
         <v>38</v>
       </c>
@@ -23110,13 +23128,13 @@
         <v>38</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AA188" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AB188" t="s" s="2">
         <v>38</v>
@@ -23134,7 +23152,7 @@
         <v>38</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>39</v>
@@ -23143,32 +23161,32 @@
         <v>45</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>38</v>
@@ -23180,17 +23198,15 @@
         <v>38</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
         <v>38</v>
@@ -23227,53 +23243,53 @@
         <v>38</v>
       </c>
       <c r="AC189" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD189" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE189" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>38</v>
@@ -23282,23 +23298,21 @@
         <v>38</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>636</v>
+        <v>120</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>637</v>
+        <v>139</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="P190" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
         <v>38</v>
       </c>
@@ -23334,42 +23348,42 @@
         <v>38</v>
       </c>
       <c r="AC190" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD190" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE190" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>640</v>
+        <v>56</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23377,7 +23391,7 @@
       </c>
       <c r="F191" s="2"/>
       <c r="G191" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>45</v>
@@ -23392,18 +23406,20 @@
         <v>79</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>643</v>
+        <v>201</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>644</v>
+        <v>202</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="P191" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="P191" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q191" t="s" s="2">
         <v>38</v>
       </c>
@@ -23427,13 +23443,11 @@
         <v>38</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z191" s="2"/>
       <c r="AA191" t="s" s="2">
-        <v>38</v>
+        <v>633</v>
       </c>
       <c r="AB191" t="s" s="2">
         <v>38</v>
@@ -23451,13 +23465,13 @@
         <v>38</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>646</v>
+        <v>205</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>42</v>
@@ -23468,13 +23482,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23482,7 +23496,7 @@
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>45</v>
@@ -23494,23 +23508,19 @@
         <v>38</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>649</v>
+        <v>47</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>38</v>
       </c>
@@ -23558,7 +23568,7 @@
         <v>38</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>652</v>
+        <v>49</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>39</v>
@@ -23567,32 +23577,32 @@
         <v>45</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>38</v>
@@ -23601,23 +23611,21 @@
         <v>38</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>655</v>
+        <v>120</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>656</v>
+        <v>139</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P193" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>38</v>
       </c>
@@ -23653,42 +23661,42 @@
         <v>38</v>
       </c>
       <c r="AC193" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD193" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE193" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>658</v>
+        <v>56</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -23696,7 +23704,7 @@
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>45</v>
@@ -23711,19 +23719,19 @@
         <v>79</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="P194" t="s" s="2">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="Q194" t="s" s="2">
         <v>38</v>
@@ -23772,7 +23780,7 @@
         <v>38</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>39</v>
@@ -23789,13 +23797,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -23821,17 +23829,15 @@
         <v>46</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>208</v>
+        <v>647</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>209</v>
+        <v>648</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P195" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>38</v>
       </c>
@@ -23879,7 +23885,7 @@
         <v>38</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>212</v>
+        <v>650</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>39</v>
@@ -23896,13 +23902,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -23910,7 +23916,7 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>45</v>
@@ -23925,19 +23931,19 @@
         <v>79</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>159</v>
+        <v>653</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>160</v>
+        <v>654</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="P196" t="s" s="2">
-        <v>162</v>
+        <v>655</v>
       </c>
       <c r="Q196" t="s" s="2">
         <v>38</v>
@@ -23950,7 +23956,7 @@
         <v>38</v>
       </c>
       <c r="U196" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="V196" t="s" s="2">
         <v>38</v>
@@ -23986,7 +23992,7 @@
         <v>38</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>164</v>
+        <v>656</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>39</v>
@@ -24003,13 +24009,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -24017,7 +24023,7 @@
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>45</v>
@@ -24035,15 +24041,17 @@
         <v>46</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>166</v>
+        <v>659</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>167</v>
+        <v>660</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P197" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="P197" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="Q197" t="s" s="2">
         <v>38</v>
       </c>
@@ -24055,7 +24063,7 @@
         <v>38</v>
       </c>
       <c r="U197" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="V197" t="s" s="2">
         <v>38</v>
@@ -24091,7 +24099,7 @@
         <v>38</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>170</v>
+        <v>662</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>39</v>
@@ -24108,13 +24116,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -24137,18 +24145,20 @@
         <v>79</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>173</v>
+        <v>665</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>174</v>
+        <v>666</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P198" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q198" t="s" s="2">
         <v>38</v>
       </c>
@@ -24196,7 +24206,7 @@
         <v>38</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>176</v>
+        <v>669</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>39</v>
@@ -24208,18 +24218,18 @@
         <v>42</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -24242,18 +24252,20 @@
         <v>79</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="P199" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="P199" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="Q199" t="s" s="2">
         <v>38</v>
       </c>
@@ -24301,7 +24313,7 @@
         <v>38</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>39</v>
@@ -24313,18 +24325,18 @@
         <v>42</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>184</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>57</v>
+        <v>672</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>57</v>
+        <v>673</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -24332,7 +24344,7 @@
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>45</v>
@@ -24344,33 +24356,35 @@
         <v>38</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L200" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P200" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q200" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R200" s="2"/>
       <c r="S200" t="s" s="2">
-        <v>594</v>
+        <v>38</v>
       </c>
       <c r="T200" t="s" s="2">
         <v>38</v>
       </c>
       <c r="U200" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="V200" t="s" s="2">
         <v>38</v>
@@ -24406,30 +24420,30 @@
         <v>38</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>62</v>
+        <v>674</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>62</v>
+        <v>675</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -24437,10 +24451,10 @@
       </c>
       <c r="F201" s="2"/>
       <c r="G201" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>38</v>
@@ -24449,18 +24463,20 @@
         <v>38</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>38</v>
@@ -24473,7 +24489,7 @@
         <v>38</v>
       </c>
       <c r="U201" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="V201" t="s" s="2">
         <v>38</v>
@@ -24509,7 +24525,7 @@
         <v>38</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>39</v>
@@ -24526,13 +24542,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B202" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="B202" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="C202" t="s" s="2">
-        <v>29</v>
+        <v>677</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24543,7 +24559,7 @@
         <v>39</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>38</v>
@@ -24552,18 +24568,20 @@
         <v>38</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>681</v>
+        <v>173</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>38</v>
@@ -24612,30 +24630,30 @@
         <v>38</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>44</v>
+        <v>678</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>44</v>
+        <v>679</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -24655,18 +24673,20 @@
         <v>38</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O203" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
         <v>38</v>
@@ -24715,7 +24735,7 @@
         <v>38</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>39</v>
@@ -24724,21 +24744,21 @@
         <v>45</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -24746,10 +24766,10 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>38</v>
@@ -24761,22 +24781,24 @@
         <v>38</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O204" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R204" s="2"/>
       <c r="S204" t="s" s="2">
-        <v>38</v>
+        <v>598</v>
       </c>
       <c r="T204" t="s" s="2">
         <v>38</v>
@@ -24806,42 +24828,42 @@
         <v>38</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD204" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE204" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -24849,10 +24871,10 @@
       </c>
       <c r="F205" s="2"/>
       <c r="G205" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>38</v>
@@ -24864,24 +24886,22 @@
         <v>38</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>58</v>
+        <v>596</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R205" s="2"/>
       <c r="S205" t="s" s="2">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="T205" t="s" s="2">
         <v>38</v>
@@ -24923,30 +24943,30 @@
         <v>38</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -24954,10 +24974,10 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>38</v>
@@ -24969,13 +24989,13 @@
         <v>38</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>64</v>
+        <v>685</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>65</v>
+        <v>686</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -25026,18 +25046,432 @@
         <v>38</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK206" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R207" s="2"/>
+      <c r="S207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R208" s="2"/>
+      <c r="S208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P209" s="2"/>
+      <c r="Q209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R209" s="2"/>
+      <c r="S209" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R210" s="2"/>
+      <c r="S210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK210" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7177" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7177" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1662,9 +1662,6 @@
   </si>
   <si>
     <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>Slot.serviceType.id</t>
@@ -2928,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84">
@@ -2936,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85">
@@ -2952,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87">
@@ -3074,7 +3071,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103">
@@ -3090,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105">
@@ -3098,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106">
@@ -3114,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108">
@@ -3122,7 +3119,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109">
@@ -3168,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115">
@@ -3236,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124">
@@ -3252,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126">
@@ -3260,15 +3257,15 @@
         <v>4</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>683</v>
       </c>
     </row>
     <row r="128">
@@ -3284,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130">
@@ -3292,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131">
@@ -3338,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="137">
@@ -3406,7 +3403,7 @@
         <v>36</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -17179,11 +17176,11 @@
         <v>38</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>340</v>
+        <v>145</v>
       </c>
       <c r="Z131" s="2"/>
       <c r="AA131" t="s" s="2">
-        <v>524</v>
+        <v>216</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>38</v>
@@ -17221,10 +17218,10 @@
         <v>490</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17324,10 +17321,10 @@
         <v>490</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17429,10 +17426,10 @@
         <v>490</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17536,10 +17533,10 @@
         <v>490</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17643,10 +17640,10 @@
         <v>490</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17672,7 +17669,7 @@
         <v>63</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>223</v>
@@ -17728,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -17748,10 +17745,10 @@
         <v>490</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17851,10 +17848,10 @@
         <v>490</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17956,10 +17953,10 @@
         <v>490</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18063,10 +18060,10 @@
         <v>490</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18170,10 +18167,10 @@
         <v>490</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18199,10 +18196,10 @@
         <v>63</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>195</v>
@@ -18253,7 +18250,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18273,10 +18270,10 @@
         <v>490</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18376,10 +18373,10 @@
         <v>490</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18481,10 +18478,10 @@
         <v>490</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18588,10 +18585,10 @@
         <v>490</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18695,10 +18692,10 @@
         <v>490</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18721,13 +18718,13 @@
         <v>79</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>288</v>
@@ -18780,7 +18777,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>45</v>
@@ -18800,10 +18797,10 @@
         <v>490</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18829,10 +18826,10 @@
         <v>96</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>241</v>
@@ -18864,11 +18861,11 @@
         <v>145</v>
       </c>
       <c r="Z147" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA147" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AA147" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
       </c>
@@ -18885,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>45</v>
@@ -18905,10 +18902,10 @@
         <v>490</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18931,16 +18928,16 @@
         <v>79</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -18990,7 +18987,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>45</v>
@@ -19010,10 +19007,10 @@
         <v>490</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19036,16 +19033,16 @@
         <v>79</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="N149" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="O149" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
@@ -19095,7 +19092,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>45</v>
@@ -19115,10 +19112,10 @@
         <v>490</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19144,10 +19141,10 @@
         <v>186</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -19155,7 +19152,7 @@
         <v>38</v>
       </c>
       <c r="R150" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>38</v>
@@ -19200,7 +19197,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19220,10 +19217,10 @@
         <v>490</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19249,10 +19246,10 @@
         <v>46</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>241</v>
@@ -19305,7 +19302,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19322,7 +19319,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>29</v>
@@ -19425,7 +19422,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>44</v>
@@ -19528,7 +19525,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>50</v>
@@ -19633,16 +19630,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E155" t="s" s="2">
         <v>38</v>
@@ -19738,13 +19735,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19841,13 +19838,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19944,13 +19941,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19990,7 +19987,7 @@
       </c>
       <c r="R158" s="2"/>
       <c r="S158" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>38</v>
@@ -20049,13 +20046,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20081,7 +20078,7 @@
         <v>172</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>65</v>
@@ -20152,16 +20149,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E160" t="s" s="2">
         <v>38</v>
@@ -20257,13 +20254,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20360,13 +20357,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20463,13 +20460,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20509,7 +20506,7 @@
       </c>
       <c r="R163" s="2"/>
       <c r="S163" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>38</v>
@@ -20568,13 +20565,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20597,10 +20594,10 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N164" t="s" s="2">
         <v>65</v>
@@ -20671,16 +20668,16 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E165" t="s" s="2">
         <v>38</v>
@@ -20776,13 +20773,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20879,13 +20876,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20982,13 +20979,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21028,7 +21025,7 @@
       </c>
       <c r="R168" s="2"/>
       <c r="S168" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>38</v>
@@ -21087,13 +21084,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21116,10 +21113,10 @@
         <v>38</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>65</v>
@@ -21190,7 +21187,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>57</v>
@@ -21236,7 +21233,7 @@
       </c>
       <c r="R170" s="2"/>
       <c r="S170" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>38</v>
@@ -21295,7 +21292,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>62</v>
@@ -21324,7 +21321,7 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>64</v>
@@ -21398,7 +21395,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>29</v>
@@ -21430,10 +21427,10 @@
         <v>41</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -21501,7 +21498,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>44</v>
@@ -21604,7 +21601,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>50</v>
@@ -21707,16 +21704,16 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E175" t="s" s="2">
         <v>38</v>
@@ -21812,13 +21809,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -21915,13 +21912,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22018,13 +22015,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -22064,7 +22061,7 @@
       </c>
       <c r="R178" s="2"/>
       <c r="S178" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>38</v>
@@ -22123,13 +22120,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22152,16 +22149,16 @@
         <v>38</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
@@ -22228,16 +22225,16 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E180" t="s" s="2">
         <v>38</v>
@@ -22333,13 +22330,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22436,13 +22433,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22539,13 +22536,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22585,7 +22582,7 @@
       </c>
       <c r="R183" s="2"/>
       <c r="S183" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>38</v>
@@ -22644,13 +22641,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22747,13 +22744,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B185" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C185" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22850,13 +22847,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B186" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C186" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22955,13 +22952,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B187" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23062,13 +23059,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B188" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C188" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23169,13 +23166,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C189" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -23272,13 +23269,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B190" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C190" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23377,13 +23374,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C191" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23447,7 +23444,7 @@
       </c>
       <c r="Z191" s="2"/>
       <c r="AA191" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AB191" t="s" s="2">
         <v>38</v>
@@ -23482,13 +23479,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B192" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C192" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23585,13 +23582,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B193" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C193" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23690,13 +23687,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="C194" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -23722,16 +23719,16 @@
         <v>58</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="N194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="O194" t="s" s="2">
+      <c r="P194" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="P194" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="Q194" t="s" s="2">
         <v>38</v>
@@ -23780,7 +23777,7 @@
         <v>38</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>39</v>
@@ -23797,13 +23794,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B195" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -23829,13 +23826,13 @@
         <v>46</v>
       </c>
       <c r="M195" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="N195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
@@ -23885,7 +23882,7 @@
         <v>38</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>39</v>
@@ -23902,13 +23899,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B196" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C196" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="C196" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -23934,16 +23931,16 @@
         <v>96</v>
       </c>
       <c r="M196" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>241</v>
       </c>
       <c r="P196" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q196" t="s" s="2">
         <v>38</v>
@@ -23992,7 +23989,7 @@
         <v>38</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>39</v>
@@ -24009,13 +24006,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B197" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -24041,16 +24038,16 @@
         <v>46</v>
       </c>
       <c r="M197" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N197" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>241</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>38</v>
@@ -24099,7 +24096,7 @@
         <v>38</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>39</v>
@@ -24116,13 +24113,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -24148,16 +24145,16 @@
         <v>186</v>
       </c>
       <c r="M198" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="N198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="O198" t="s" s="2">
+      <c r="P198" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="P198" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="Q198" t="s" s="2">
         <v>38</v>
@@ -24206,7 +24203,7 @@
         <v>38</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>39</v>
@@ -24223,13 +24220,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="C199" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -24330,13 +24327,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B200" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C200" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="C200" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -24437,13 +24434,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B201" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C201" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="C201" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -24542,13 +24539,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B202" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C202" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24647,13 +24644,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B203" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C203" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -24752,7 +24749,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>57</v>
@@ -24798,7 +24795,7 @@
       </c>
       <c r="R204" s="2"/>
       <c r="S204" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T204" t="s" s="2">
         <v>38</v>
@@ -24857,7 +24854,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>62</v>
@@ -24886,7 +24883,7 @@
         <v>38</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M205" t="s" s="2">
         <v>64</v>
@@ -24960,7 +24957,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>29</v>
@@ -24992,10 +24989,10 @@
         <v>41</v>
       </c>
       <c r="M206" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -25063,7 +25060,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>44</v>
@@ -25166,7 +25163,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>50</v>
@@ -25269,7 +25266,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>57</v>
@@ -25315,7 +25312,7 @@
       </c>
       <c r="R209" s="2"/>
       <c r="S209" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T209" t="s" s="2">
         <v>38</v>
@@ -25374,7 +25371,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>62</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="908">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2699,12 +2699,6 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
     <t>Extension.extension:ident</t>
   </si>
   <si>
@@ -2844,12 +2838,6 @@
   </si>
   <si>
     <t>http://helsenorge.no/fhir/StructureDefinition/hn-extension-varselorganisasjon</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/extension/varselorganisasjon</t>
   </si>
   <si>
     <t>HnExtensionVarselorganisasjon</t>
@@ -2992,7 +2980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4099,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146">
@@ -4107,150 +4095,142 @@
         <v>4</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>907</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>908</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>7</v>
+        <v>905</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>910</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B152" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>17</v>
+        <v>907</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>911</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B158" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>23</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>322</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B165" t="s" s="2">
         <v>850</v>
       </c>
     </row>
@@ -29993,14 +29973,12 @@
         <v>857</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>858</v>
+        <v>333</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O245" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O245" s="2"/>
       <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
         <v>73</v>
@@ -30069,13 +30047,13 @@
         <v>845</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>326</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E246" t="s" s="2">
         <v>73</v>
@@ -30174,7 +30152,7 @@
         <v>845</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>821</v>
@@ -30277,7 +30255,7 @@
         <v>845</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>823</v>
@@ -30380,7 +30358,7 @@
         <v>845</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C249" t="s" s="2">
         <v>825</v>
@@ -30423,7 +30401,7 @@
       </c>
       <c r="R249" s="2"/>
       <c r="S249" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T249" t="s" s="2">
         <v>73</v>
@@ -30485,7 +30463,7 @@
         <v>845</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C250" t="s" s="2">
         <v>827</v>
@@ -30588,10 +30566,10 @@
         <v>845</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30691,10 +30669,10 @@
         <v>845</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30796,10 +30774,10 @@
         <v>845</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -30903,10 +30881,10 @@
         <v>845</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31010,10 +30988,10 @@
         <v>845</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31113,10 +31091,10 @@
         <v>845</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31218,10 +31196,10 @@
         <v>845</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31285,7 +31263,7 @@
       </c>
       <c r="Z257" s="2"/>
       <c r="AA257" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>73</v>
@@ -31323,10 +31301,10 @@
         <v>845</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31426,10 +31404,10 @@
         <v>845</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31531,10 +31509,10 @@
         <v>845</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31638,10 +31616,10 @@
         <v>845</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -31743,10 +31721,10 @@
         <v>845</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -31850,10 +31828,10 @@
         <v>845</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -31957,10 +31935,10 @@
         <v>845</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32064,10 +32042,10 @@
         <v>845</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32171,10 +32149,10 @@
         <v>845</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32278,10 +32256,10 @@
         <v>845</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32383,10 +32361,10 @@
         <v>845</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32488,10 +32466,10 @@
         <v>845</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32798,7 +32776,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>321</v>
@@ -32830,10 +32808,10 @@
         <v>74</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
@@ -32901,7 +32879,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>325</v>
@@ -33004,7 +32982,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>326</v>
@@ -33107,7 +33085,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>328</v>
@@ -33153,7 +33131,7 @@
       </c>
       <c r="R275" s="2"/>
       <c r="S275" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="T275" t="s" s="2">
         <v>73</v>
@@ -33212,7 +33190,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>332</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13222,7 +13222,7 @@
         <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="Z72" s="2"/>
       <c r="AA72" t="s" s="2">

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -33911,7 +33911,7 @@
         <v>80</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>510</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -33911,7 +33911,7 @@
         <v>80</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>518</v>
+        <v>638</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>510</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -33911,7 +33911,7 @@
         <v>80</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>510</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -33644,7 +33644,7 @@
         <v>73</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>503</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1841,10 +1841,10 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
+    <t>Extended valueset for status</t>
+  </si>
+  <si>
+    <t>Status er extended med koder fra 9148.</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10727" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10727" uniqueCount="954">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1741,10 +1741,10 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-ansiennitets-dato</t>
-  </si>
-  <si>
-    <t>no-ansiennitets-dato</t>
+    <t>ServiceRequest.extension:ansiennitetsDato</t>
+  </si>
+  <si>
+    <t>ansiennitetsDato</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-ansiennitets-dato}
@@ -1757,10 +1757,10 @@
     <t>Seniority date is the first date a referral was received by specialist health</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-mottatt-dato</t>
-  </si>
-  <si>
-    <t>no-mottatt-dato</t>
+    <t>ServiceRequest.extension:mottattDato</t>
+  </si>
+  <si>
+    <t>mottattDato</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-mottatt-dato}
@@ -1773,10 +1773,10 @@
     <t>Date and time when the order was received.</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:no-frist-for-helsehjelp</t>
-  </si>
-  <si>
-    <t>no-frist-for-helsehjelp</t>
+    <t>ServiceRequest.extension:fristDatoForHelsehjelp</t>
+  </si>
+  <si>
+    <t>fristDatoForHelsehjelp</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-frist-for-helsehjelp}
@@ -2949,6 +2949,9 @@
     <t>Varselorganisasjon som kjem frem i varsel til innbygger.</t>
   </si>
   <si>
+    <t>no-ansiennitets-dato</t>
+  </si>
+  <si>
     <t>http://helsenorge.no/fhir/StructureDefinition/no-ansiennitets-dato</t>
   </si>
   <si>
@@ -2958,6 +2961,9 @@
     <t>Ansiennitetsdato er definert som den første mottaksdatoen for en henvisning til spesialisthelsetjenesten</t>
   </si>
   <si>
+    <t>no-frist-for-helsehjelp</t>
+  </si>
+  <si>
     <t>http://helsenorge.no/fhir/StructureDefinition/no-frist-for-helsehjelp</t>
   </si>
   <si>
@@ -2965,6 +2971,9 @@
   </si>
   <si>
     <t>Frist for helsehjelp er den datoen spesialisthelsetjenesten har vurdert at pasienten senest må få nødvendig helsehjelp innen, for at det ikke skal oppstå alvorlig helserisiko.</t>
+  </si>
+  <si>
+    <t>no-mottatt-dato</t>
   </si>
   <si>
     <t>http://helsenorge.no/fhir/StructureDefinition/no-mottatt-dato</t>
@@ -4534,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
     </row>
     <row r="188">
@@ -4542,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="189">
@@ -4558,7 +4567,7 @@
         <v>8</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="191">
@@ -4694,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
     </row>
     <row r="209">
@@ -4702,7 +4711,7 @@
         <v>4</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="210">
@@ -4718,7 +4727,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="212">
@@ -4854,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
     </row>
     <row r="230">
@@ -4862,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="231">
@@ -4878,7 +4887,7 @@
         <v>8</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="233">
@@ -36165,7 +36174,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>307</v>
@@ -36268,7 +36277,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>312</v>
@@ -36371,7 +36380,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>313</v>
@@ -36474,7 +36483,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>318</v>
@@ -36520,7 +36529,7 @@
       </c>
       <c r="R301" s="2"/>
       <c r="S301" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="T301" t="s" s="2">
         <v>73</v>
@@ -36579,7 +36588,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>555</v>
+        <v>942</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>322</v>
@@ -36611,7 +36620,7 @@
         <v>701</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N302" t="s" s="2">
         <v>324</v>
@@ -36682,7 +36691,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>307</v>
@@ -36785,7 +36794,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>312</v>
@@ -36888,7 +36897,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>313</v>
@@ -36991,7 +37000,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>318</v>
@@ -37037,7 +37046,7 @@
       </c>
       <c r="R306" s="2"/>
       <c r="S306" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="T306" t="s" s="2">
         <v>73</v>
@@ -37096,7 +37105,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>322</v>
@@ -37128,7 +37137,7 @@
         <v>701</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N307" t="s" s="2">
         <v>324</v>
@@ -37199,7 +37208,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>307</v>
@@ -37302,7 +37311,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>312</v>
@@ -37405,7 +37414,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>313</v>
@@ -37508,7 +37517,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>318</v>
@@ -37554,7 +37563,7 @@
       </c>
       <c r="R311" s="2"/>
       <c r="S311" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="T311" t="s" s="2">
         <v>73</v>
@@ -37613,7 +37622,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>322</v>
@@ -37645,7 +37654,7 @@
         <v>701</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="N312" t="s" s="2">
         <v>324</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11390" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11390" uniqueCount="974">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1842,6 +1842,16 @@
     <t>vurdertDato</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-vurdert-dato}
+</t>
+  </si>
+  <si>
+    <t>Vurdert dato</t>
+  </si>
+  <si>
+    <t>Brukes når forespørsel er vurdert og/eller henvisning er avvist/avsluttet.</t>
+  </si>
+  <si>
     <t>ServiceRequest.extension:statusReason</t>
   </si>
   <si>
@@ -3028,13 +3038,10 @@
     <t>Reason for the current status of the ServiceRequest (R5 parity).</t>
   </si>
   <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-vurdert-dato</t>
+  </si>
+  <si>
     <t>NoVurdertDato</t>
-  </si>
-  <si>
-    <t>Vurdert dato</t>
-  </si>
-  <si>
-    <t>Brukes når forespørsel er vurdert og/eller henvisning er avvist/avsluttet.</t>
   </si>
   <si>
     <t>Vurdert dato.</t>
@@ -4446,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="168">
@@ -4454,7 +4461,7 @@
         <v>4</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="169">
@@ -4470,7 +4477,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171">
@@ -4478,7 +4485,7 @@
         <v>9</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="172">
@@ -4522,7 +4529,7 @@
         <v>18</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="178">
@@ -4558,7 +4565,7 @@
         <v>26</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="183">
@@ -4566,7 +4573,7 @@
         <v>28</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="184">
@@ -4598,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="188">
@@ -4606,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="189">
@@ -4622,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="191">
@@ -4742,7 +4749,7 @@
         <v>309</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="207">
@@ -4758,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="209">
@@ -4766,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="210">
@@ -4782,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="212">
@@ -4790,7 +4797,7 @@
         <v>9</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="213">
@@ -4834,7 +4841,7 @@
         <v>18</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219">
@@ -4918,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="230">
@@ -4926,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="231">
@@ -4942,7 +4949,7 @@
         <v>8</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="233">
@@ -4950,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="234">
@@ -4994,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="240">
@@ -5086,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="252">
@@ -5102,7 +5109,7 @@
         <v>8</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="254">
@@ -5238,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="272">
@@ -5246,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="273">
@@ -5262,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="275">
@@ -5270,7 +5277,7 @@
         <v>9</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="276">
@@ -5314,7 +5321,7 @@
         <v>18</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="282">
@@ -5406,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>403</v>
+        <v>971</v>
       </c>
     </row>
     <row r="294">
@@ -5422,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="296">
@@ -5430,7 +5437,7 @@
         <v>9</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>969</v>
+        <v>587</v>
       </c>
     </row>
     <row r="297">
@@ -5474,7 +5481,7 @@
         <v>18</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>970</v>
+        <v>588</v>
       </c>
     </row>
     <row r="303">
@@ -21676,13 +21683,13 @@
         <v>73</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>405</v>
+        <v>587</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>406</v>
+        <v>588</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -21753,13 +21760,13 @@
         <v>556</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>572</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E155" t="s" s="2">
         <v>73</v>
@@ -21781,13 +21788,13 @@
         <v>73</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -21858,10 +21865,10 @@
         <v>556</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21965,10 +21972,10 @@
         <v>556</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21994,13 +22001,13 @@
         <v>135</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -22050,7 +22057,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>71</v>
@@ -22070,10 +22077,10 @@
         <v>556</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -22173,10 +22180,10 @@
         <v>556</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -22278,10 +22285,10 @@
         <v>556</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -22385,10 +22392,10 @@
         <v>556</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -22492,10 +22499,10 @@
         <v>556</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -22599,10 +22606,10 @@
         <v>556</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -22704,10 +22711,10 @@
         <v>556</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -22807,10 +22814,10 @@
         <v>556</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22912,10 +22919,10 @@
         <v>556</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -22938,16 +22945,16 @@
         <v>80</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -22997,7 +23004,7 @@
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>71</v>
@@ -23017,10 +23024,10 @@
         <v>556</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -23046,13 +23053,13 @@
         <v>93</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -23102,7 +23109,7 @@
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>71</v>
@@ -23122,14 +23129,14 @@
         <v>556</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
@@ -23148,13 +23155,13 @@
         <v>80</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -23205,7 +23212,7 @@
         <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>71</v>
@@ -23225,14 +23232,14 @@
         <v>556</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
@@ -23251,13 +23258,13 @@
         <v>80</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -23308,7 +23315,7 @@
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>71</v>
@@ -23328,14 +23335,14 @@
         <v>556</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" t="s" s="2">
@@ -23357,16 +23364,16 @@
         <v>135</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="P170" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>73</v>
@@ -23415,7 +23422,7 @@
         <v>73</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>71</v>
@@ -23435,10 +23442,10 @@
         <v>556</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -23464,13 +23471,13 @@
         <v>99</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -23499,10 +23506,10 @@
         <v>163</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AB171" t="s" s="2">
         <v>73</v>
@@ -23520,7 +23527,7 @@
         <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>79</v>
@@ -23540,10 +23547,10 @@
         <v>556</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -23569,13 +23576,13 @@
         <v>99</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
@@ -23586,7 +23593,7 @@
         <v>73</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>73</v>
@@ -23604,10 +23611,10 @@
         <v>163</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AB172" t="s" s="2">
         <v>73</v>
@@ -23625,7 +23632,7 @@
         <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>79</v>
@@ -23645,10 +23652,10 @@
         <v>556</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -23674,16 +23681,16 @@
         <v>185</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="P173" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>73</v>
@@ -23712,7 +23719,7 @@
       </c>
       <c r="Z173" s="2"/>
       <c r="AA173" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AB173" t="s" s="2">
         <v>73</v>
@@ -23730,7 +23737,7 @@
         <v>73</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>71</v>
@@ -23750,10 +23757,10 @@
         <v>556</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -23779,10 +23786,10 @@
         <v>99</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -23790,7 +23797,7 @@
         <v>73</v>
       </c>
       <c r="R174" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>73</v>
@@ -23814,10 +23821,10 @@
         <v>163</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AB174" t="s" s="2">
         <v>73</v>
@@ -23835,7 +23842,7 @@
         <v>73</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>71</v>
@@ -23847,7 +23854,7 @@
         <v>73</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="175">
@@ -23855,10 +23862,10 @@
         <v>556</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23884,67 +23891,67 @@
         <v>140</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="O175" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="P175" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Q175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG175" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="Q175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>71</v>
@@ -23964,14 +23971,14 @@
         <v>556</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
@@ -23993,13 +24000,13 @@
         <v>185</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
@@ -24025,13 +24032,13 @@
         <v>73</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>73</v>
@@ -24049,7 +24056,7 @@
         <v>73</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>71</v>
@@ -24069,14 +24076,14 @@
         <v>556</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" t="s" s="2">
@@ -24098,13 +24105,13 @@
         <v>185</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
@@ -24130,13 +24137,13 @@
         <v>73</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>73</v>
@@ -24154,7 +24161,7 @@
         <v>73</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>71</v>
@@ -24163,7 +24170,7 @@
         <v>72</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>91</v>
@@ -24174,10 +24181,10 @@
         <v>556</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -24200,17 +24207,17 @@
         <v>80</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="Q178" t="s" s="2">
         <v>73</v>
@@ -24259,7 +24266,7 @@
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>71</v>
@@ -24279,10 +24286,10 @@
         <v>556</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -24305,13 +24312,13 @@
         <v>80</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -24362,7 +24369,7 @@
         <v>73</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>79</v>
@@ -24382,10 +24389,10 @@
         <v>556</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -24485,10 +24492,10 @@
         <v>556</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -24590,10 +24597,10 @@
         <v>556</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -24695,10 +24702,10 @@
         <v>556</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -24800,10 +24807,10 @@
         <v>556</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24905,10 +24912,10 @@
         <v>556</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -25008,10 +25015,10 @@
         <v>556</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -25113,10 +25120,10 @@
         <v>556</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -25220,10 +25227,10 @@
         <v>556</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -25327,10 +25334,10 @@
         <v>556</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -25356,7 +25363,7 @@
         <v>93</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>453</v>
@@ -25426,7 +25433,7 @@
         <v>73</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="190">
@@ -25434,10 +25441,10 @@
         <v>556</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -25539,10 +25546,10 @@
         <v>556</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -25642,10 +25649,10 @@
         <v>556</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -25747,10 +25754,10 @@
         <v>556</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -25852,14 +25859,14 @@
         <v>556</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
@@ -25878,13 +25885,13 @@
         <v>80</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -25935,7 +25942,7 @@
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>71</v>
@@ -25955,14 +25962,14 @@
         <v>556</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
@@ -25981,13 +25988,13 @@
         <v>80</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -26038,7 +26045,7 @@
         <v>73</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>71</v>
@@ -26058,10 +26065,10 @@
         <v>556</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -26084,13 +26091,13 @@
         <v>80</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -26117,13 +26124,13 @@
         <v>73</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AA196" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="AB196" t="s" s="2">
         <v>73</v>
@@ -26141,7 +26148,7 @@
         <v>73</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>71</v>
@@ -26161,14 +26168,14 @@
         <v>556</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
@@ -26190,10 +26197,10 @@
         <v>331</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -26244,7 +26251,7 @@
         <v>73</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>71</v>
@@ -26264,14 +26271,14 @@
         <v>556</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" t="s" s="2">
@@ -26290,16 +26297,16 @@
         <v>80</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -26349,7 +26356,7 @@
         <v>73</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>71</v>
@@ -26369,14 +26376,14 @@
         <v>556</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" t="s" s="2">
@@ -26398,13 +26405,13 @@
         <v>185</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -26434,7 +26441,7 @@
       </c>
       <c r="Z199" s="2"/>
       <c r="AA199" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>73</v>
@@ -26452,7 +26459,7 @@
         <v>73</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>71</v>
@@ -26472,14 +26479,14 @@
         <v>556</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
@@ -26498,16 +26505,16 @@
         <v>80</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -26557,7 +26564,7 @@
         <v>73</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>71</v>
@@ -26577,10 +26584,10 @@
         <v>556</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -26606,10 +26613,10 @@
         <v>185</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
@@ -26636,31 +26643,31 @@
         <v>73</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z201" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG201" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>71</v>
@@ -26680,10 +26687,10 @@
         <v>556</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26706,13 +26713,13 @@
         <v>80</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -26763,7 +26770,7 @@
         <v>73</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>71</v>
@@ -26783,10 +26790,10 @@
         <v>556</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26812,13 +26819,13 @@
         <v>185</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26844,13 +26851,13 @@
         <v>73</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>73</v>
@@ -26868,7 +26875,7 @@
         <v>73</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>71</v>
@@ -26888,10 +26895,10 @@
         <v>556</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26914,16 +26921,16 @@
         <v>80</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
@@ -26973,7 +26980,7 @@
         <v>73</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>71</v>
@@ -26993,10 +27000,10 @@
         <v>556</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -27019,13 +27026,13 @@
         <v>73</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -27076,7 +27083,7 @@
         <v>73</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>71</v>
@@ -27096,14 +27103,14 @@
         <v>556</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
@@ -27122,16 +27129,16 @@
         <v>73</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -27181,7 +27188,7 @@
         <v>73</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>71</v>
@@ -27201,10 +27208,10 @@
         <v>556</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -27227,16 +27234,16 @@
         <v>80</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -27286,7 +27293,7 @@
         <v>73</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>71</v>
@@ -27306,14 +27313,14 @@
         <v>556</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
@@ -27335,16 +27342,16 @@
         <v>185</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="P208" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="Q208" t="s" s="2">
         <v>73</v>
@@ -27369,13 +27376,13 @@
         <v>73</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>73</v>
@@ -27393,7 +27400,7 @@
         <v>73</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>71</v>
@@ -27413,10 +27420,10 @@
         <v>556</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -27439,13 +27446,13 @@
         <v>73</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>47</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -27496,7 +27503,7 @@
         <v>73</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>71</v>
@@ -27516,10 +27523,10 @@
         <v>556</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -27545,10 +27552,10 @@
         <v>212</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -27599,7 +27606,7 @@
         <v>73</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>71</v>
@@ -27619,10 +27626,10 @@
         <v>556</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27645,16 +27652,16 @@
         <v>73</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
@@ -27704,7 +27711,7 @@
         <v>73</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>71</v>
@@ -27721,13 +27728,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27753,10 +27760,10 @@
         <v>74</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -27807,7 +27814,7 @@
         <v>73</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>71</v>
@@ -27824,13 +27831,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27929,13 +27936,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -28032,13 +28039,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -28137,13 +28144,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -28242,13 +28249,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -28347,13 +28354,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -28452,13 +28459,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -28557,13 +28564,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -28664,13 +28671,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28750,7 +28757,7 @@
         <v>73</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>71</v>
@@ -28767,13 +28774,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28870,13 +28877,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28975,13 +28982,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29082,13 +29089,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -29189,13 +29196,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29296,13 +29303,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -29401,13 +29408,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29504,13 +29511,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29609,13 +29616,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -29641,7 +29648,7 @@
         <v>185</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="N230" t="s" s="2">
         <v>481</v>
@@ -29693,7 +29700,7 @@
         <v>73</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>71</v>
@@ -29710,13 +29717,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29813,13 +29820,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29918,13 +29925,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30025,13 +30032,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -30132,13 +30139,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30164,10 +30171,10 @@
         <v>185</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
@@ -30198,25 +30205,25 @@
       </c>
       <c r="Z235" s="2"/>
       <c r="AA235" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG235" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>71</v>
@@ -30233,13 +30240,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -30336,13 +30343,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30441,13 +30448,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -30548,13 +30555,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30655,13 +30662,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30687,7 +30694,7 @@
         <v>185</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="N240" t="s" s="2">
         <v>513</v>
@@ -30741,7 +30748,7 @@
         <v>73</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>71</v>
@@ -30758,13 +30765,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -30861,13 +30868,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30966,13 +30973,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31073,13 +31080,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31180,13 +31187,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -31212,10 +31219,10 @@
         <v>185</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
@@ -31246,7 +31253,7 @@
       </c>
       <c r="Z245" s="2"/>
       <c r="AA245" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AB245" t="s" s="2">
         <v>73</v>
@@ -31264,7 +31271,7 @@
         <v>73</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>71</v>
@@ -31281,13 +31288,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31384,13 +31391,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31489,13 +31496,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31596,13 +31603,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31703,13 +31710,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -31732,13 +31739,13 @@
         <v>80</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
@@ -31789,7 +31796,7 @@
         <v>73</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>79</v>
@@ -31806,13 +31813,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -31838,10 +31845,10 @@
         <v>99</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -31871,28 +31878,28 @@
         <v>163</v>
       </c>
       <c r="Z251" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG251" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG251" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>79</v>
@@ -31909,13 +31916,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31938,13 +31945,13 @@
         <v>80</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
@@ -31995,7 +32002,7 @@
         <v>73</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>79</v>
@@ -32012,13 +32019,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32041,13 +32048,13 @@
         <v>80</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -32098,7 +32105,7 @@
         <v>73</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>79</v>
@@ -32115,13 +32122,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -32147,10 +32154,10 @@
         <v>140</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -32158,52 +32165,52 @@
         <v>73</v>
       </c>
       <c r="R254" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="S254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG254" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="S254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF254" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG254" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>71</v>
@@ -32220,13 +32227,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32252,10 +32259,10 @@
         <v>212</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
@@ -32306,7 +32313,7 @@
         <v>73</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>71</v>
@@ -32323,7 +32330,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>307</v>
@@ -32426,7 +32433,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>312</v>
@@ -32529,7 +32536,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>313</v>
@@ -32634,16 +32641,16 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C259" t="s" s="2">
         <v>313</v>
       </c>
       <c r="D259" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="E259" t="s" s="2">
         <v>73</v>
@@ -32739,13 +32746,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -32842,13 +32849,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32945,13 +32952,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32991,7 +32998,7 @@
       </c>
       <c r="R262" s="2"/>
       <c r="S262" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="T262" t="s" s="2">
         <v>73</v>
@@ -33050,13 +33057,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33082,7 +33089,7 @@
         <v>252</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="N263" t="s" s="2">
         <v>324</v>
@@ -33153,16 +33160,16 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C264" t="s" s="2">
         <v>313</v>
       </c>
       <c r="D264" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E264" t="s" s="2">
         <v>73</v>
@@ -33258,13 +33265,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33361,13 +33368,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -33464,13 +33471,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33510,7 +33517,7 @@
       </c>
       <c r="R267" s="2"/>
       <c r="S267" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="T267" t="s" s="2">
         <v>73</v>
@@ -33569,13 +33576,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -33598,10 +33605,10 @@
         <v>73</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="N268" t="s" s="2">
         <v>324</v>
@@ -33672,16 +33679,16 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C269" t="s" s="2">
         <v>313</v>
       </c>
       <c r="D269" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E269" t="s" s="2">
         <v>73</v>
@@ -33777,13 +33784,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33880,13 +33887,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -33983,13 +33990,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -34029,7 +34036,7 @@
       </c>
       <c r="R272" s="2"/>
       <c r="S272" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="T272" t="s" s="2">
         <v>73</v>
@@ -34088,13 +34095,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -34117,10 +34124,10 @@
         <v>73</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="N273" t="s" s="2">
         <v>324</v>
@@ -34191,7 +34198,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>318</v>
@@ -34237,7 +34244,7 @@
       </c>
       <c r="R274" s="2"/>
       <c r="S274" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="T274" t="s" s="2">
         <v>73</v>
@@ -34296,7 +34303,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>322</v>
@@ -34399,7 +34406,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>307</v>
@@ -34431,10 +34438,10 @@
         <v>74</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
@@ -34502,7 +34509,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>312</v>
@@ -34605,7 +34612,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>313</v>
@@ -34708,16 +34715,16 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C279" t="s" s="2">
         <v>313</v>
       </c>
       <c r="D279" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E279" t="s" s="2">
         <v>73</v>
@@ -34813,13 +34820,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -34916,13 +34923,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35019,13 +35026,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -35065,7 +35072,7 @@
       </c>
       <c r="R282" s="2"/>
       <c r="S282" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="T282" t="s" s="2">
         <v>73</v>
@@ -35124,13 +35131,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -35153,7 +35160,7 @@
         <v>73</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="M283" t="s" s="2">
         <v>323</v>
@@ -35227,16 +35234,16 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C284" t="s" s="2">
         <v>313</v>
       </c>
       <c r="D284" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E284" t="s" s="2">
         <v>73</v>
@@ -35332,13 +35339,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -35435,13 +35442,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -35538,13 +35545,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35584,7 +35591,7 @@
       </c>
       <c r="R287" s="2"/>
       <c r="S287" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="T287" t="s" s="2">
         <v>73</v>
@@ -35643,13 +35650,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -35746,13 +35753,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -35849,13 +35856,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35954,13 +35961,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36061,13 +36068,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36168,13 +36175,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36271,13 +36278,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36376,13 +36383,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -36446,7 +36453,7 @@
       </c>
       <c r="Z295" s="2"/>
       <c r="AA295" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>73</v>
@@ -36481,13 +36488,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36584,13 +36591,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36689,13 +36696,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36796,13 +36803,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36901,13 +36908,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -37006,13 +37013,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -37111,13 +37118,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37218,13 +37225,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -37325,13 +37332,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37432,13 +37439,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37537,13 +37544,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37640,13 +37647,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37745,7 +37752,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>318</v>
@@ -37791,7 +37798,7 @@
       </c>
       <c r="R308" s="2"/>
       <c r="S308" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="T308" t="s" s="2">
         <v>73</v>
@@ -37850,7 +37857,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>322</v>
@@ -37953,7 +37960,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>307</v>
@@ -37985,10 +37992,10 @@
         <v>74</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
@@ -38056,7 +38063,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>312</v>
@@ -38159,7 +38166,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>313</v>
@@ -38262,7 +38269,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>318</v>
@@ -38308,7 +38315,7 @@
       </c>
       <c r="R313" s="2"/>
       <c r="S313" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="T313" t="s" s="2">
         <v>73</v>
@@ -38367,7 +38374,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>322</v>
@@ -38825,7 +38832,7 @@
       </c>
       <c r="R318" s="2"/>
       <c r="S318" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="T318" t="s" s="2">
         <v>73</v>
@@ -38916,7 +38923,7 @@
         <v>331</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N319" t="s" s="2">
         <v>324</v>
@@ -38987,7 +38994,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>307</v>
@@ -39019,10 +39026,10 @@
         <v>74</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
@@ -39090,7 +39097,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>312</v>
@@ -39193,7 +39200,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>313</v>
@@ -39296,7 +39303,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>318</v>
@@ -39342,7 +39349,7 @@
       </c>
       <c r="R323" s="2"/>
       <c r="S323" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="T323" t="s" s="2">
         <v>73</v>
@@ -39401,7 +39408,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>322</v>
@@ -39536,10 +39543,10 @@
         <v>74</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>969</v>
+        <v>587</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>970</v>
+        <v>588</v>
       </c>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
@@ -39859,7 +39866,7 @@
       </c>
       <c r="R328" s="2"/>
       <c r="S328" t="s" s="2">
-        <v>403</v>
+        <v>971</v>
       </c>
       <c r="T328" t="s" s="2">
         <v>73</v>
@@ -39950,7 +39957,7 @@
         <v>331</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="N329" t="s" s="2">
         <v>324</v>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/all-profiles.xlsx
+++ b/ExampleIG/output/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2064,7 +2064,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-PriorityUrgentOrRoutine:priority må være enten 'routine' eller 'urgent'. {value='routine' or value='urgent'}</t>
+PriorityUrgentOrRoutineOrStat:priority må være enten 'routine','urgent' eller 'stat'. Stat brukes for Øhjelp henvisninger. {value='routine' or value='urgent' or value='stat'}</t>
   </si>
   <si>
     <t>ServiceRequest.doNotPerform</t>
